--- a/DangerousJourneys-Mythus/accessories/roll20_import_generator2.xlsx
+++ b/DangerousJourneys-Mythus/accessories/roll20_import_generator2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apbrezen\Documents\GitHub\DangerousJourneys-Mythus\accessories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E08205-0B59-4D96-A275-1AFAA1B786B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC11E74-4E13-49A7-81CE-090FAF6442BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{9DECB17E-D9C9-49D2-8AD7-DCA09A433D93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="754">
   <si>
     <t>Weapon Name</t>
   </si>
@@ -2295,6 +2295,9 @@
   </si>
   <si>
     <t>1 for cunning, 0 for not</t>
+  </si>
+  <si>
+    <t>subterraneanorientation</t>
   </si>
 </sst>
 </file>
@@ -12942,10 +12945,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1738F689-DC18-48FE-85C0-D9A9FFF22234}">
-  <dimension ref="A1:V571"/>
+  <dimension ref="A1:V572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="B566" sqref="B566"/>
+    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="A573" sqref="A573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18679,7 +18682,7 @@
       <c r="B376" s="8"/>
       <c r="I376" s="8"/>
       <c r="U376" t="str">
-        <f t="shared" ref="U376:U439" si="11">IF(C376=1,CONCATENATE(A376,"_kstoggle^1|",A376,"_steep^",D376,"|"),"")</f>
+        <f t="shared" ref="U376:U440" si="11">IF(C376=1,CONCATENATE(A376,"_kstoggle^1|",A376,"_steep^",D376,"|"),"")</f>
         <v/>
       </c>
       <c r="V376" t="str">
@@ -18736,7 +18739,7 @@
         <v/>
       </c>
       <c r="V379" t="str">
-        <f t="shared" ref="V379:V442" si="12">IF(G379=1,CONCATENATE(F379,"_has^1",IF(H379=1,CONCATENATE("|",F379,"_spec^1"),),IF(I379=1,CONCATENATE("|",F379,"_proof^1"),)),"")</f>
+        <f t="shared" ref="V379:V443" si="12">IF(G379=1,CONCATENATE(F379,"_has^1",IF(H379=1,CONCATENATE("|",F379,"_spec^1"),),IF(I379=1,CONCATENATE("|",F379,"_proof^1"),)),"")</f>
         <v/>
       </c>
     </row>
@@ -19486,13 +19489,19 @@
     </row>
     <row r="425" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A425" s="8" t="s">
-        <v>333</v>
+        <v>753</v>
       </c>
       <c r="B425" s="8"/>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>65</v>
+      </c>
       <c r="I425" s="8"/>
       <c r="U425" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>subterraneanorientation_kstoggle^1|subterraneanorientation_steep^65|</v>
       </c>
       <c r="V425" t="str">
         <f t="shared" si="12"/>
@@ -19501,7 +19510,7 @@
     </row>
     <row r="426" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A426" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B426" s="8"/>
       <c r="I426" s="8"/>
@@ -19516,7 +19525,7 @@
     </row>
     <row r="427" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A427" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B427" s="8"/>
       <c r="I427" s="8"/>
@@ -19531,7 +19540,7 @@
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A428" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B428" s="8"/>
       <c r="I428" s="8"/>
@@ -19546,7 +19555,7 @@
     </row>
     <row r="429" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A429" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B429" s="8"/>
       <c r="I429" s="8"/>
@@ -19561,19 +19570,13 @@
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B430" s="8"/>
-      <c r="C430">
-        <v>1</v>
-      </c>
-      <c r="D430">
-        <v>57</v>
-      </c>
       <c r="I430" s="8"/>
       <c r="U430" t="str">
         <f t="shared" si="11"/>
-        <v>weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57|</v>
+        <v/>
       </c>
       <c r="V430" t="str">
         <f t="shared" si="12"/>
@@ -19581,26 +19584,24 @@
       </c>
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A431" s="8"/>
-      <c r="B431" t="s">
-        <v>687</v>
-      </c>
-      <c r="E431" t="s">
-        <v>723</v>
-      </c>
-      <c r="F431" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="G431">
+      <c r="A431" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B431" s="8"/>
+      <c r="C431">
         <v>1</v>
       </c>
+      <c r="D431">
+        <v>57</v>
+      </c>
+      <c r="I431" s="8"/>
       <c r="U431" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57|</v>
       </c>
       <c r="V431" t="str">
         <f t="shared" si="12"/>
-        <v>florentine_has^1</v>
+        <v/>
       </c>
     </row>
     <row r="432" spans="1:22" x14ac:dyDescent="0.25">
@@ -19609,10 +19610,10 @@
         <v>687</v>
       </c>
       <c r="E432" t="s">
-        <v>724</v>
-      </c>
-      <c r="F432" t="s">
-        <v>597</v>
+        <v>723</v>
+      </c>
+      <c r="F432" s="8" t="s">
+        <v>596</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -19623,7 +19624,7 @@
       </c>
       <c r="V432" t="str">
         <f t="shared" si="12"/>
-        <v>fastdraw_has^1</v>
+        <v>florentine_has^1</v>
       </c>
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.25">
@@ -19632,10 +19633,10 @@
         <v>687</v>
       </c>
       <c r="E433" t="s">
-        <v>21</v>
+        <v>724</v>
       </c>
       <c r="F433" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G433">
         <v>1</v>
@@ -19646,7 +19647,7 @@
       </c>
       <c r="V433" t="str">
         <f t="shared" si="12"/>
-        <v>specifictarget_has^1</v>
+        <v>fastdraw_has^1</v>
       </c>
     </row>
     <row r="434" spans="1:22" x14ac:dyDescent="0.25">
@@ -19655,10 +19656,10 @@
         <v>687</v>
       </c>
       <c r="E434" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F434" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G434">
         <v>1</v>
@@ -19669,27 +19670,35 @@
       </c>
       <c r="V434" t="str">
         <f t="shared" si="12"/>
-        <v>blindfighting_has^1</v>
+        <v>specifictarget_has^1</v>
       </c>
     </row>
     <row r="435" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A435" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B435" s="8"/>
-      <c r="I435" s="8"/>
+      <c r="A435" s="8"/>
+      <c r="B435" t="s">
+        <v>687</v>
+      </c>
+      <c r="E435" t="s">
+        <v>29</v>
+      </c>
+      <c r="F435" t="s">
+        <v>599</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
       <c r="U435" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="V435" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>blindfighting_has^1</v>
       </c>
     </row>
     <row r="436" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A436" s="8" t="s">
-        <v>339</v>
+        <v>127</v>
       </c>
       <c r="B436" s="8"/>
       <c r="I436" s="8"/>
@@ -19703,11 +19712,10 @@
       </c>
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A437" s="8"/>
+      <c r="A437" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B437" s="8"/>
-      <c r="F437" s="8" t="s">
-        <v>600</v>
-      </c>
       <c r="I437" s="8"/>
       <c r="U437" t="str">
         <f t="shared" si="11"/>
@@ -19721,8 +19729,8 @@
     <row r="438" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A438" s="8"/>
       <c r="B438" s="8"/>
-      <c r="F438" t="s">
-        <v>601</v>
+      <c r="F438" s="8" t="s">
+        <v>600</v>
       </c>
       <c r="I438" s="8"/>
       <c r="U438" t="str">
@@ -19738,7 +19746,7 @@
       <c r="A439" s="8"/>
       <c r="B439" s="8"/>
       <c r="F439" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I439" s="8"/>
       <c r="U439" t="str">
@@ -19754,11 +19762,11 @@
       <c r="A440" s="8"/>
       <c r="B440" s="8"/>
       <c r="F440" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I440" s="8"/>
       <c r="U440" t="str">
-        <f t="shared" ref="U440:U503" si="13">IF(C440=1,CONCATENATE(A440,"_kstoggle^1|",A440,"_steep^",D440,"|"),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="V440" t="str">
@@ -19770,11 +19778,11 @@
       <c r="A441" s="8"/>
       <c r="B441" s="8"/>
       <c r="F441" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I441" s="8"/>
       <c r="U441" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U441:U504" si="13">IF(C441=1,CONCATENATE(A441,"_kstoggle^1|",A441,"_steep^",D441,"|"),"")</f>
         <v/>
       </c>
       <c r="V441" t="str">
@@ -19786,7 +19794,7 @@
       <c r="A442" s="8"/>
       <c r="B442" s="8"/>
       <c r="F442" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I442" s="8"/>
       <c r="U442" t="str">
@@ -19802,7 +19810,7 @@
       <c r="A443" s="8"/>
       <c r="B443" s="8"/>
       <c r="F443" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I443" s="8"/>
       <c r="U443" t="str">
@@ -19810,7 +19818,7 @@
         <v/>
       </c>
       <c r="V443" t="str">
-        <f t="shared" ref="V443:V506" si="14">IF(G443=1,CONCATENATE(F443,"_has^1",IF(H443=1,CONCATENATE("|",F443,"_spec^1"),),IF(I443=1,CONCATENATE("|",F443,"_proof^1"),)),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -19818,7 +19826,7 @@
       <c r="A444" s="8"/>
       <c r="B444" s="8"/>
       <c r="F444" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I444" s="8"/>
       <c r="U444" t="str">
@@ -19826,7 +19834,7 @@
         <v/>
       </c>
       <c r="V444" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="V444:V507" si="14">IF(G444=1,CONCATENATE(F444,"_has^1",IF(H444=1,CONCATENATE("|",F444,"_spec^1"),),IF(I444=1,CONCATENATE("|",F444,"_proof^1"),)),"")</f>
         <v/>
       </c>
     </row>
@@ -19834,7 +19842,7 @@
       <c r="A445" s="8"/>
       <c r="B445" s="8"/>
       <c r="F445" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I445" s="8"/>
       <c r="U445" t="str">
@@ -19850,7 +19858,7 @@
       <c r="A446" s="8"/>
       <c r="B446" s="8"/>
       <c r="F446" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I446" s="8"/>
       <c r="U446" t="str">
@@ -19866,7 +19874,7 @@
       <c r="A447" s="8"/>
       <c r="B447" s="8"/>
       <c r="F447" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I447" s="8"/>
       <c r="U447" t="str">
@@ -19882,7 +19890,7 @@
       <c r="A448" s="8"/>
       <c r="B448" s="8"/>
       <c r="F448" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I448" s="8"/>
       <c r="U448" t="str">
@@ -19898,7 +19906,7 @@
       <c r="A449" s="8"/>
       <c r="B449" s="8"/>
       <c r="F449" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I449" s="8"/>
       <c r="U449" t="str">
@@ -19914,7 +19922,7 @@
       <c r="A450" s="8"/>
       <c r="B450" s="8"/>
       <c r="F450" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I450" s="8"/>
       <c r="U450" t="str">
@@ -19927,10 +19935,11 @@
       </c>
     </row>
     <row r="451" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A451" s="8" t="s">
-        <v>129</v>
-      </c>
+      <c r="A451" s="8"/>
       <c r="B451" s="8"/>
+      <c r="F451" t="s">
+        <v>613</v>
+      </c>
       <c r="I451" s="8"/>
       <c r="U451" t="str">
         <f t="shared" si="13"/>
@@ -19943,7 +19952,7 @@
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="B452" s="8"/>
       <c r="I452" s="8"/>
@@ -19957,11 +19966,10 @@
       </c>
     </row>
     <row r="453" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A453" s="8"/>
+      <c r="A453" s="8" t="s">
+        <v>340</v>
+      </c>
       <c r="B453" s="8"/>
-      <c r="F453" s="8" t="s">
-        <v>614</v>
-      </c>
       <c r="I453" s="8"/>
       <c r="U453" t="str">
         <f t="shared" si="13"/>
@@ -19975,8 +19983,8 @@
     <row r="454" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A454" s="8"/>
       <c r="B454" s="8"/>
-      <c r="F454" t="s">
-        <v>615</v>
+      <c r="F454" s="8" t="s">
+        <v>614</v>
       </c>
       <c r="I454" s="8"/>
       <c r="U454" t="str">
@@ -19992,7 +20000,7 @@
       <c r="A455" s="8"/>
       <c r="B455" s="8"/>
       <c r="F455" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I455" s="8"/>
       <c r="U455" t="str">
@@ -20008,7 +20016,7 @@
       <c r="A456" s="8"/>
       <c r="B456" s="8"/>
       <c r="F456" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I456" s="8"/>
       <c r="U456" t="str">
@@ -20024,7 +20032,7 @@
       <c r="A457" s="8"/>
       <c r="B457" s="8"/>
       <c r="F457" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I457" s="8"/>
       <c r="U457" t="str">
@@ -20040,7 +20048,7 @@
       <c r="A458" s="8"/>
       <c r="B458" s="8"/>
       <c r="F458" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I458" s="8"/>
       <c r="U458" t="str">
@@ -20056,7 +20064,7 @@
       <c r="A459" s="8"/>
       <c r="B459" s="8"/>
       <c r="F459" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I459" s="8"/>
       <c r="U459" t="str">
@@ -20072,7 +20080,7 @@
       <c r="A460" s="8"/>
       <c r="B460" s="8"/>
       <c r="F460" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I460" s="8"/>
       <c r="U460" t="str">
@@ -20088,7 +20096,7 @@
       <c r="A461" s="8"/>
       <c r="B461" s="8"/>
       <c r="F461" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I461" s="8"/>
       <c r="U461" t="str">
@@ -20104,7 +20112,7 @@
       <c r="A462" s="8"/>
       <c r="B462" s="8"/>
       <c r="F462" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I462" s="8"/>
       <c r="U462" t="str">
@@ -20120,7 +20128,7 @@
       <c r="A463" s="8"/>
       <c r="B463" s="8"/>
       <c r="F463" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I463" s="8"/>
       <c r="U463" t="str">
@@ -20136,7 +20144,7 @@
       <c r="A464" s="8"/>
       <c r="B464" s="8"/>
       <c r="F464" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I464" s="8"/>
       <c r="U464" t="str">
@@ -20149,10 +20157,11 @@
       </c>
     </row>
     <row r="465" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A465" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="A465" s="8"/>
       <c r="B465" s="8"/>
+      <c r="F465" t="s">
+        <v>625</v>
+      </c>
       <c r="I465" s="8"/>
       <c r="U465" t="str">
         <f t="shared" si="13"/>
@@ -20165,7 +20174,7 @@
     </row>
     <row r="466" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="s">
-        <v>130</v>
+        <v>341</v>
       </c>
       <c r="B466" s="8"/>
       <c r="I466" s="8"/>
@@ -20180,7 +20189,7 @@
     </row>
     <row r="467" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A467" s="8" t="s">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="B467" s="8"/>
       <c r="I467" s="8"/>
@@ -20195,7 +20204,7 @@
     </row>
     <row r="468" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="s">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="B468" s="8"/>
       <c r="I468" s="8"/>
@@ -20209,11 +20218,10 @@
       </c>
     </row>
     <row r="469" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A469" s="8"/>
+      <c r="A469" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="B469" s="8"/>
-      <c r="F469" s="8" t="s">
-        <v>626</v>
-      </c>
       <c r="I469" s="8"/>
       <c r="U469" t="str">
         <f t="shared" si="13"/>
@@ -20227,8 +20235,8 @@
     <row r="470" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A470" s="8"/>
       <c r="B470" s="8"/>
-      <c r="F470" t="s">
-        <v>627</v>
+      <c r="F470" s="8" t="s">
+        <v>626</v>
       </c>
       <c r="I470" s="8"/>
       <c r="U470" t="str">
@@ -20244,7 +20252,7 @@
       <c r="A471" s="8"/>
       <c r="B471" s="8"/>
       <c r="F471" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I471" s="8"/>
       <c r="U471" t="str">
@@ -20260,7 +20268,7 @@
       <c r="A472" s="8"/>
       <c r="B472" s="8"/>
       <c r="F472" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I472" s="8"/>
       <c r="U472" t="str">
@@ -20276,7 +20284,7 @@
       <c r="A473" s="8"/>
       <c r="B473" s="8"/>
       <c r="F473" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I473" s="8"/>
       <c r="U473" t="str">
@@ -20289,10 +20297,11 @@
       </c>
     </row>
     <row r="474" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A474" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="A474" s="8"/>
       <c r="B474" s="8"/>
+      <c r="F474" t="s">
+        <v>630</v>
+      </c>
       <c r="I474" s="8"/>
       <c r="U474" t="str">
         <f t="shared" si="13"/>
@@ -20305,7 +20314,7 @@
     </row>
     <row r="475" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A475" s="8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B475" s="8"/>
       <c r="I475" s="8"/>
@@ -20319,11 +20328,10 @@
       </c>
     </row>
     <row r="476" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A476" s="8"/>
+      <c r="A476" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="B476" s="8"/>
-      <c r="F476" s="8" t="s">
-        <v>631</v>
-      </c>
       <c r="I476" s="8"/>
       <c r="U476" t="str">
         <f t="shared" si="13"/>
@@ -20337,8 +20345,8 @@
     <row r="477" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A477" s="8"/>
       <c r="B477" s="8"/>
-      <c r="F477" t="s">
-        <v>632</v>
+      <c r="F477" s="8" t="s">
+        <v>631</v>
       </c>
       <c r="I477" s="8"/>
       <c r="U477" t="str">
@@ -20354,7 +20362,7 @@
       <c r="A478" s="8"/>
       <c r="B478" s="8"/>
       <c r="F478" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I478" s="8"/>
       <c r="U478" t="str">
@@ -20370,7 +20378,7 @@
       <c r="A479" s="8"/>
       <c r="B479" s="8"/>
       <c r="F479" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I479" s="8"/>
       <c r="U479" t="str">
@@ -20386,7 +20394,7 @@
       <c r="A480" s="8"/>
       <c r="B480" s="8"/>
       <c r="F480" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I480" s="8"/>
       <c r="U480" t="str">
@@ -20402,7 +20410,7 @@
       <c r="A481" s="8"/>
       <c r="B481" s="8"/>
       <c r="F481" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I481" s="8"/>
       <c r="U481" t="str">
@@ -20415,10 +20423,11 @@
       </c>
     </row>
     <row r="482" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A482" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="A482" s="8"/>
       <c r="B482" s="8"/>
+      <c r="F482" t="s">
+        <v>636</v>
+      </c>
       <c r="I482" s="8"/>
       <c r="U482" t="str">
         <f t="shared" si="13"/>
@@ -20431,7 +20440,7 @@
     </row>
     <row r="483" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A483" s="8" t="s">
-        <v>343</v>
+        <v>140</v>
       </c>
       <c r="B483" s="8"/>
       <c r="I483" s="8"/>
@@ -20446,7 +20455,7 @@
     </row>
     <row r="484" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B484" s="8"/>
       <c r="I484" s="8"/>
@@ -20460,11 +20469,10 @@
       </c>
     </row>
     <row r="485" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A485" s="8"/>
+      <c r="A485" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="B485" s="8"/>
-      <c r="F485" s="8" t="s">
-        <v>637</v>
-      </c>
       <c r="I485" s="8"/>
       <c r="U485" t="str">
         <f t="shared" si="13"/>
@@ -20478,8 +20486,8 @@
     <row r="486" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A486" s="8"/>
       <c r="B486" s="8"/>
-      <c r="F486" t="s">
-        <v>638</v>
+      <c r="F486" s="8" t="s">
+        <v>637</v>
       </c>
       <c r="I486" s="8"/>
       <c r="U486" t="str">
@@ -20495,7 +20503,7 @@
       <c r="A487" s="8"/>
       <c r="B487" s="8"/>
       <c r="F487" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I487" s="8"/>
       <c r="U487" t="str">
@@ -20511,7 +20519,7 @@
       <c r="A488" s="8"/>
       <c r="B488" s="8"/>
       <c r="F488" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I488" s="8"/>
       <c r="U488" t="str">
@@ -20527,7 +20535,7 @@
       <c r="A489" s="8"/>
       <c r="B489" s="8"/>
       <c r="F489" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I489" s="8"/>
       <c r="U489" t="str">
@@ -20540,10 +20548,11 @@
       </c>
     </row>
     <row r="490" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A490" s="8" t="s">
-        <v>345</v>
-      </c>
+      <c r="A490" s="8"/>
       <c r="B490" s="8"/>
+      <c r="F490" t="s">
+        <v>641</v>
+      </c>
       <c r="I490" s="8"/>
       <c r="U490" t="str">
         <f t="shared" si="13"/>
@@ -20556,7 +20565,7 @@
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A491" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B491" s="8"/>
       <c r="I491" s="8"/>
@@ -20571,7 +20580,7 @@
     </row>
     <row r="492" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B492" s="8"/>
       <c r="I492" s="8"/>
@@ -20586,7 +20595,7 @@
     </row>
     <row r="493" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A493" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B493" s="8"/>
       <c r="I493" s="8"/>
@@ -20601,7 +20610,7 @@
     </row>
     <row r="494" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="B494" s="8"/>
       <c r="I494" s="8"/>
@@ -20616,7 +20625,7 @@
     </row>
     <row r="495" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A495" s="8" t="s">
-        <v>349</v>
+        <v>141</v>
       </c>
       <c r="B495" s="8"/>
       <c r="I495" s="8"/>
@@ -20631,7 +20640,7 @@
     </row>
     <row r="496" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B496" s="8"/>
       <c r="I496" s="8"/>
@@ -20645,11 +20654,10 @@
       </c>
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A497" s="8"/>
+      <c r="A497" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="B497" s="8"/>
-      <c r="F497" s="8" t="s">
-        <v>642</v>
-      </c>
       <c r="I497" s="8"/>
       <c r="U497" t="str">
         <f t="shared" si="13"/>
@@ -20663,8 +20671,8 @@
     <row r="498" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A498" s="8"/>
       <c r="B498" s="8"/>
-      <c r="F498" t="s">
-        <v>224</v>
+      <c r="F498" s="8" t="s">
+        <v>642</v>
       </c>
       <c r="I498" s="8"/>
       <c r="U498" t="str">
@@ -20680,7 +20688,7 @@
       <c r="A499" s="8"/>
       <c r="B499" s="8"/>
       <c r="F499" t="s">
-        <v>643</v>
+        <v>224</v>
       </c>
       <c r="I499" s="8"/>
       <c r="U499" t="str">
@@ -20696,7 +20704,7 @@
       <c r="A500" s="8"/>
       <c r="B500" s="8"/>
       <c r="F500" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I500" s="8"/>
       <c r="U500" t="str">
@@ -20712,7 +20720,7 @@
       <c r="A501" s="8"/>
       <c r="B501" s="8"/>
       <c r="F501" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I501" s="8"/>
       <c r="U501" t="str">
@@ -20728,7 +20736,7 @@
       <c r="A502" s="8"/>
       <c r="B502" s="8"/>
       <c r="F502" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I502" s="8"/>
       <c r="U502" t="str">
@@ -20744,7 +20752,7 @@
       <c r="A503" s="8"/>
       <c r="B503" s="8"/>
       <c r="F503" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I503" s="8"/>
       <c r="U503" t="str">
@@ -20760,11 +20768,11 @@
       <c r="A504" s="8"/>
       <c r="B504" s="8"/>
       <c r="F504" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I504" s="8"/>
       <c r="U504" t="str">
-        <f t="shared" ref="U504:U561" si="15">IF(C504=1,CONCATENATE(A504,"_kstoggle^1|",A504,"_steep^",D504,"|"),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V504" t="str">
@@ -20776,11 +20784,11 @@
       <c r="A505" s="8"/>
       <c r="B505" s="8"/>
       <c r="F505" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I505" s="8"/>
       <c r="U505" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="U505:U562" si="15">IF(C505=1,CONCATENATE(A505,"_kstoggle^1|",A505,"_steep^",D505,"|"),"")</f>
         <v/>
       </c>
       <c r="V505" t="str">
@@ -20792,7 +20800,7 @@
       <c r="A506" s="8"/>
       <c r="B506" s="8"/>
       <c r="F506" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I506" s="8"/>
       <c r="U506" t="str">
@@ -20808,7 +20816,7 @@
       <c r="A507" s="8"/>
       <c r="B507" s="8"/>
       <c r="F507" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I507" s="8"/>
       <c r="U507" t="str">
@@ -20816,28 +20824,29 @@
         <v/>
       </c>
       <c r="V507" t="str">
-        <f t="shared" ref="V507:V561" si="16">IF(G507=1,CONCATENATE(F507,"_has^1",IF(H507=1,CONCATENATE("|",F507,"_spec^1"),),IF(I507=1,CONCATENATE("|",F507,"_proof^1"),)),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A508" s="8" t="s">
-        <v>351</v>
-      </c>
+      <c r="A508" s="8"/>
       <c r="B508" s="8"/>
+      <c r="F508" t="s">
+        <v>651</v>
+      </c>
       <c r="I508" s="8"/>
       <c r="U508" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="V508" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="V508:V562" si="16">IF(G508=1,CONCATENATE(F508,"_has^1",IF(H508=1,CONCATENATE("|",F508,"_spec^1"),),IF(I508=1,CONCATENATE("|",F508,"_proof^1"),)),"")</f>
         <v/>
       </c>
     </row>
     <row r="509" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A509" s="8" t="s">
-        <v>142</v>
+        <v>351</v>
       </c>
       <c r="B509" s="8"/>
       <c r="I509" s="8"/>
@@ -20852,7 +20861,7 @@
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="B510" s="8"/>
       <c r="I510" s="8"/>
@@ -20866,11 +20875,10 @@
       </c>
     </row>
     <row r="511" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A511" s="8"/>
+      <c r="A511" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B511" s="8"/>
-      <c r="F511" s="8" t="s">
-        <v>652</v>
-      </c>
       <c r="I511" s="8"/>
       <c r="U511" t="str">
         <f t="shared" si="15"/>
@@ -20884,8 +20892,8 @@
     <row r="512" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A512" s="8"/>
       <c r="B512" s="8"/>
-      <c r="F512" t="s">
-        <v>653</v>
+      <c r="F512" s="8" t="s">
+        <v>652</v>
       </c>
       <c r="I512" s="8"/>
       <c r="U512" t="str">
@@ -20901,7 +20909,7 @@
       <c r="A513" s="8"/>
       <c r="B513" s="8"/>
       <c r="F513" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I513" s="8"/>
       <c r="U513" t="str">
@@ -20917,7 +20925,7 @@
       <c r="A514" s="8"/>
       <c r="B514" s="8"/>
       <c r="F514" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I514" s="8"/>
       <c r="U514" t="str">
@@ -20933,7 +20941,7 @@
       <c r="A515" s="8"/>
       <c r="B515" s="8"/>
       <c r="F515" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I515" s="8"/>
       <c r="U515" t="str">
@@ -20946,10 +20954,11 @@
       </c>
     </row>
     <row r="516" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A516" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="A516" s="8"/>
       <c r="B516" s="8"/>
+      <c r="F516" t="s">
+        <v>656</v>
+      </c>
       <c r="I516" s="8"/>
       <c r="U516" t="str">
         <f t="shared" si="15"/>
@@ -20962,7 +20971,7 @@
     </row>
     <row r="517" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A517" s="8" t="s">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="B517" s="8"/>
       <c r="I517" s="8"/>
@@ -20977,7 +20986,7 @@
     </row>
     <row r="518" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B518" s="8"/>
       <c r="I518" s="8"/>
@@ -20992,7 +21001,7 @@
     </row>
     <row r="519" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A519" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B519" s="8"/>
       <c r="I519" s="8"/>
@@ -21006,11 +21015,10 @@
       </c>
     </row>
     <row r="520" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A520" s="8"/>
+      <c r="A520" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="B520" s="8"/>
-      <c r="F520" s="8" t="s">
-        <v>657</v>
-      </c>
       <c r="I520" s="8"/>
       <c r="U520" t="str">
         <f t="shared" si="15"/>
@@ -21024,8 +21032,8 @@
     <row r="521" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A521" s="8"/>
       <c r="B521" s="8"/>
-      <c r="F521" t="s">
-        <v>658</v>
+      <c r="F521" s="8" t="s">
+        <v>657</v>
       </c>
       <c r="I521" s="8"/>
       <c r="U521" t="str">
@@ -21041,7 +21049,7 @@
       <c r="A522" s="8"/>
       <c r="B522" s="8"/>
       <c r="F522" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I522" s="8"/>
       <c r="U522" t="str">
@@ -21057,7 +21065,7 @@
       <c r="A523" s="8"/>
       <c r="B523" s="8"/>
       <c r="F523" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I523" s="8"/>
       <c r="U523" t="str">
@@ -21073,7 +21081,7 @@
       <c r="A524" s="8"/>
       <c r="B524" s="8"/>
       <c r="F524" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I524" s="8"/>
       <c r="U524" t="str">
@@ -21089,7 +21097,7 @@
       <c r="A525" s="8"/>
       <c r="B525" s="8"/>
       <c r="F525" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I525" s="8"/>
       <c r="U525" t="str">
@@ -21105,7 +21113,7 @@
       <c r="A526" s="8"/>
       <c r="B526" s="8"/>
       <c r="F526" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I526" s="8"/>
       <c r="U526" t="str">
@@ -21121,7 +21129,7 @@
       <c r="A527" s="8"/>
       <c r="B527" s="8"/>
       <c r="F527" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I527" s="8"/>
       <c r="U527" t="str">
@@ -21137,7 +21145,7 @@
       <c r="A528" s="8"/>
       <c r="B528" s="8"/>
       <c r="F528" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I528" s="8"/>
       <c r="U528" t="str">
@@ -21153,7 +21161,7 @@
       <c r="A529" s="8"/>
       <c r="B529" s="8"/>
       <c r="F529" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I529" s="8"/>
       <c r="U529" t="str">
@@ -21169,7 +21177,7 @@
       <c r="A530" s="8"/>
       <c r="B530" s="8"/>
       <c r="F530" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I530" s="8"/>
       <c r="U530" t="str">
@@ -21185,7 +21193,7 @@
       <c r="A531" s="8"/>
       <c r="B531" s="8"/>
       <c r="F531" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I531" s="8"/>
       <c r="U531" t="str">
@@ -21201,7 +21209,7 @@
       <c r="A532" s="8"/>
       <c r="B532" s="8"/>
       <c r="F532" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I532" s="8"/>
       <c r="U532" t="str">
@@ -21217,7 +21225,7 @@
       <c r="A533" s="8"/>
       <c r="B533" s="8"/>
       <c r="F533" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I533" s="8"/>
       <c r="U533" t="str">
@@ -21233,7 +21241,7 @@
       <c r="A534" s="8"/>
       <c r="B534" s="8"/>
       <c r="F534" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I534" s="8"/>
       <c r="U534" t="str">
@@ -21249,7 +21257,7 @@
       <c r="A535" s="8"/>
       <c r="B535" s="8"/>
       <c r="F535" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I535" s="8"/>
       <c r="U535" t="str">
@@ -21265,7 +21273,7 @@
       <c r="A536" s="8"/>
       <c r="B536" s="8"/>
       <c r="F536" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I536" s="8"/>
       <c r="U536" t="str">
@@ -21281,7 +21289,7 @@
       <c r="A537" s="8"/>
       <c r="B537" s="8"/>
       <c r="F537" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I537" s="8"/>
       <c r="U537" t="str">
@@ -21297,7 +21305,7 @@
       <c r="A538" s="8"/>
       <c r="B538" s="8"/>
       <c r="F538" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I538" s="8"/>
       <c r="U538" t="str">
@@ -21310,10 +21318,11 @@
       </c>
     </row>
     <row r="539" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A539" s="8" t="s">
-        <v>356</v>
-      </c>
+      <c r="A539" s="8"/>
       <c r="B539" s="8"/>
+      <c r="F539" t="s">
+        <v>675</v>
+      </c>
       <c r="I539" s="8"/>
       <c r="U539" t="str">
         <f t="shared" si="15"/>
@@ -21325,11 +21334,10 @@
       </c>
     </row>
     <row r="540" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A540" s="8"/>
+      <c r="A540" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="B540" s="8"/>
-      <c r="F540" s="8" t="s">
-        <v>676</v>
-      </c>
       <c r="I540" s="8"/>
       <c r="U540" t="str">
         <f t="shared" si="15"/>
@@ -21343,8 +21351,8 @@
     <row r="541" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A541" s="8"/>
       <c r="B541" s="8"/>
-      <c r="F541" t="s">
-        <v>677</v>
+      <c r="F541" s="8" t="s">
+        <v>676</v>
       </c>
       <c r="I541" s="8"/>
       <c r="U541" t="str">
@@ -21360,7 +21368,7 @@
       <c r="A542" s="8"/>
       <c r="B542" s="8"/>
       <c r="F542" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I542" s="8"/>
       <c r="U542" t="str">
@@ -21376,7 +21384,7 @@
       <c r="A543" s="8"/>
       <c r="B543" s="8"/>
       <c r="F543" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I543" s="8"/>
       <c r="U543" t="str">
@@ -21392,7 +21400,7 @@
       <c r="A544" s="8"/>
       <c r="B544" s="8"/>
       <c r="F544" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I544" s="8"/>
       <c r="U544" t="str">
@@ -21408,7 +21416,7 @@
       <c r="A545" s="8"/>
       <c r="B545" s="8"/>
       <c r="F545" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I545" s="8"/>
       <c r="U545" t="str">
@@ -21421,20 +21429,15 @@
       </c>
     </row>
     <row r="546" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A546" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="A546" s="8"/>
       <c r="B546" s="8"/>
-      <c r="C546">
-        <v>1</v>
-      </c>
-      <c r="D546">
-        <v>20</v>
+      <c r="F546" t="s">
+        <v>681</v>
       </c>
       <c r="I546" s="8"/>
       <c r="U546" t="str">
         <f t="shared" si="15"/>
-        <v>philosophy_kstoggle^1|philosophy_steep^20|</v>
+        <v/>
       </c>
       <c r="V546" t="str">
         <f t="shared" si="16"/>
@@ -21443,13 +21446,19 @@
     </row>
     <row r="547" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A547" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B547" s="8"/>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>20</v>
+      </c>
       <c r="I547" s="8"/>
       <c r="U547" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>philosophy_kstoggle^1|philosophy_steep^20|</v>
       </c>
       <c r="V547" t="str">
         <f t="shared" si="16"/>
@@ -21458,7 +21467,7 @@
     </row>
     <row r="548" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A548" s="8" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="B548" s="8"/>
       <c r="I548" s="8"/>
@@ -21473,7 +21482,7 @@
     </row>
     <row r="549" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A549" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B549" s="8"/>
       <c r="I549" s="8"/>
@@ -21488,7 +21497,7 @@
     </row>
     <row r="550" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A550" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B550" s="8"/>
       <c r="I550" s="8"/>
@@ -21503,7 +21512,7 @@
     </row>
     <row r="551" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A551" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B551" s="8"/>
       <c r="I551" s="8"/>
@@ -21518,7 +21527,7 @@
     </row>
     <row r="552" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A552" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B552" s="8"/>
       <c r="I552" s="8"/>
@@ -21533,7 +21542,7 @@
     </row>
     <row r="553" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A553" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B553" s="8"/>
       <c r="I553" s="8"/>
@@ -21548,7 +21557,7 @@
     </row>
     <row r="554" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A554" s="8" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="B554" s="8"/>
       <c r="I554" s="8"/>
@@ -21563,7 +21572,7 @@
     </row>
     <row r="555" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A555" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B555" s="8"/>
       <c r="I555" s="8"/>
@@ -21578,7 +21587,7 @@
     </row>
     <row r="556" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A556" s="8" t="s">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="B556" s="8"/>
       <c r="I556" s="8"/>
@@ -21593,24 +21602,13 @@
     </row>
     <row r="557" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A557" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B557" t="s">
-        <v>682</v>
-      </c>
-      <c r="C557">
-        <v>1</v>
-      </c>
-      <c r="D557">
-        <v>32</v>
-      </c>
-      <c r="E557" t="s">
-        <v>730</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B557" s="8"/>
       <c r="I557" s="8"/>
       <c r="U557" t="str">
         <f t="shared" si="15"/>
-        <v>streetwise_kstoggle^1|streetwise_steep^32|</v>
+        <v/>
       </c>
       <c r="V557" t="str">
         <f t="shared" si="16"/>
@@ -21619,13 +21617,24 @@
     </row>
     <row r="558" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A558" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B558" s="8"/>
+        <v>361</v>
+      </c>
+      <c r="B558" t="s">
+        <v>682</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558">
+        <v>32</v>
+      </c>
+      <c r="E558" t="s">
+        <v>730</v>
+      </c>
       <c r="I558" s="8"/>
       <c r="U558" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>streetwise_kstoggle^1|streetwise_steep^32|</v>
       </c>
       <c r="V558" t="str">
         <f t="shared" si="16"/>
@@ -21634,7 +21643,7 @@
     </row>
     <row r="559" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A559" s="8" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="B559" s="8"/>
       <c r="I559" s="8"/>
@@ -21649,7 +21658,7 @@
     </row>
     <row r="560" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A560" s="8" t="s">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="B560" s="8"/>
       <c r="I560" s="8"/>
@@ -21664,7 +21673,7 @@
     </row>
     <row r="561" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A561" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B561" s="8"/>
       <c r="I561" s="8"/>
@@ -21677,49 +21686,64 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A562" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B562" s="8"/>
+      <c r="I562" s="8"/>
+      <c r="U562" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="V562" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
         <v>692</v>
       </c>
-      <c r="B566" t="str">
+      <c r="B567" t="str">
         <f>CONCATENATE("personahide^0|","character_name^",B1,"|","attractiveness^",B2,"|","beautyugly^",B3,"|","ap^",B4,"|","joss^",B5,"|","size^",B6,"|","sizedetail^",B7,"|","numberappearing^",B8,"|","invuln^",B9,"|","suscept^",B10,"|","senses^",B11,"|","avgarmor^",B12,"|","mentalcunning^",B14,"|","mmcapatt^",B15,"|","mmpowatt^",B16,"|","mmspdatt^",B17,"|","mrcapatt^",B18,"|","mrpowatt^",B19,"|","mrspdatt^",B20,"|","pmcapatt^",B22,"|","pmpowatt^",B23,"|","pmspdatt^",B24,"|","pncapatt^",B25,"|","pnpowatt^",B26,"|","pnspdatt^",B27,"|","smcapatt^",B29,"|","smpowatt^",B30,"|","smspdatt^",B31,"|","spcapatt^",B32,"|","sppowatt^",B33,"|","spspdatt^",B34,"|","traithekamental_toggle^",B36,"|","traithekaphysical_toggle^",B37,"|","traithekaspiritual_toggle^",B38,"|","fpdweomer^",B40,"|","fppriest^",B41,"|","dweomerschool^",B43,"|","priestethos^",B44,"|","vowpact^",B46,"|","vowpact_mult^",B47,"|","race^",B49,"|",,"personality^",B50,"|","quirks^",B51,"|","residence^",B52,"|")</f>
         <v>personahide^0|character_name^Smartypants Hottieface|attractiveness^18|beautyugly^-2|ap^2|joss^3|size^1|sizedetail^6'T,2'W|numberappearing^3d6|invuln^Fire|suscept^Silver (Insinuation x2)|senses^|avgarmor^3|mentalcunning^0|mmcapatt^19|mmpowatt^14|mmspdatt^18|mrcapatt^15|mrpowatt^12|mrspdatt^11|pmcapatt^20|pmpowatt^19|pmspdatt^15|pncapatt^19|pnpowatt^18|pnspdatt^17|smcapatt^16|smpowatt^12|smspdatt^11|spcapatt^15|sppowatt^12|spspdatt^13|traithekamental_toggle^0|traithekaphysical_toggle^1|traithekaspiritual_toggle^0|fpdweomer^0|fppriest^0|dweomerschool^|priestethos^|vowpact^|vowpact_mult^1|race^Faerie|personality^Savage|quirks^|residence^Arizona|</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>693</v>
-      </c>
-      <c r="B567" t="str">
-        <f>_xlfn.TEXTJOIN("|",TRUE,U55:U561)</f>
-        <v>agriculture_kstoggle^1|agriculture_steep^21|architecture_kstoggle^1|architecture_steep^43||astronomy_kstoggle^1|astronomy_steep^24||cryptography_kstoggle^1|cryptography_steep^24||economicsfinanceinvesting_kstoggle^1|economicsfinanceinvesting_steep^30||foreignlanguage_kstoggle^1|foreignlanguage_steep^34||hypnotism_kstoggle^1|hypnotism_steep^14||journalism_kstoggle^1|journalism_steep^18||lipreadingsignlanguage_kstoggle^1|lipreadingsignlanguage_steep^42||nativetongue_kstoggle^1|nativetongue_steep^37||tradelanguage_kstoggle^1|tradelanguage_steep^24||combathandweapons_kstoggle^1|combathandweapons_steep^24||culturedpalate_kstoggle^1|culturedpalate_steep^52||hekaforging_kstoggle^1|hekaforging_steep^32||music_kstoggle^1|music_steep^23||perceptionphysical_kstoggle^1|perceptionphysical_steep^53||sports_kstoggle^1|sports_steep^34||weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57||philosophy_kstoggle^1|philosophy_steep^20||streetwise_kstoggle^1|streetwise_steep^32|</v>
-      </c>
-    </row>
     <row r="568" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B568" t="str">
-        <f>_xlfn.TEXTJOIN("|",TRUE,V55:V561)</f>
-        <v>animalhusbandry_has^1|floraculture_has^1|economics_has^1|mercantilism_has^1|axe_has^1|onehandedswords_has^1|beverages_has^1|wineswinemaking_has^1|beersbrewing_has^1|spirits_has^1|perfumes_has^1|gourmetmealpreparation_has^1|enhancedobjectquality_has^1|enchantedmechanisms_has^1|hekareservoirs_has^1|keyboards_has^1|stringedbowed_has^1|noticingp_has^1|hearing_has^1|searching_has^1|tracking_has^1|individualnonviolentsports_has^1|florentine_has^1|fastdraw_has^1|specifictarget_has^1|blindfighting_has^1</v>
+        <f>_xlfn.TEXTJOIN("|",TRUE,U55:U562)</f>
+        <v>agriculture_kstoggle^1|agriculture_steep^21|architecture_kstoggle^1|architecture_steep^43||astronomy_kstoggle^1|astronomy_steep^24||cryptography_kstoggle^1|cryptography_steep^24||economicsfinanceinvesting_kstoggle^1|economicsfinanceinvesting_steep^30||foreignlanguage_kstoggle^1|foreignlanguage_steep^34||hypnotism_kstoggle^1|hypnotism_steep^14||journalism_kstoggle^1|journalism_steep^18||lipreadingsignlanguage_kstoggle^1|lipreadingsignlanguage_steep^42||nativetongue_kstoggle^1|nativetongue_steep^37||tradelanguage_kstoggle^1|tradelanguage_steep^24||combathandweapons_kstoggle^1|combathandweapons_steep^24||culturedpalate_kstoggle^1|culturedpalate_steep^52||hekaforging_kstoggle^1|hekaforging_steep^32||music_kstoggle^1|music_steep^23||perceptionphysical_kstoggle^1|perceptionphysical_steep^53||sports_kstoggle^1|sports_steep^34||subterraneanorientation_kstoggle^1|subterraneanorientation_steep^65||weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57||philosophy_kstoggle^1|philosophy_steep^20||streetwise_kstoggle^1|streetwise_steep^32|</v>
       </c>
     </row>
     <row r="569" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
+        <v>694</v>
+      </c>
+      <c r="B569" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,V55:V562)</f>
+        <v>animalhusbandry_has^1|floraculture_has^1|economics_has^1|mercantilism_has^1|axe_has^1|onehandedswords_has^1|beverages_has^1|wineswinemaking_has^1|beersbrewing_has^1|spirits_has^1|perfumes_has^1|gourmetmealpreparation_has^1|enhancedobjectquality_has^1|enchantedmechanisms_has^1|hekareservoirs_has^1|keyboards_has^1|stringedbowed_has^1|noticingp_has^1|hearing_has^1|searching_has^1|tracking_has^1|individualnonviolentsports_has^1|florentine_has^1|fastdraw_has^1|specifictarget_has^1|blindfighting_has^1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
         <v>365</v>
       </c>
-      <c r="B569" t="str">
-        <f>CONCATENATE("merccoms^",E126,"|","languages^",E144,"|","signlanguages^",E190,"|","nativetongue_language^",E197,"|","tradelanguage_language^",E219,"|","florentineweaps^",E431,"|","fastdrawweaps^",E432,"|","specifictargetweaps^",E433,"|","blindfightingweaps^",E434,"|","streetwisesubs^",E557,"|")</f>
+      <c r="B570" t="str">
+        <f>CONCATENATE("merccoms^",E126,"|","languages^",E144,"|","signlanguages^",E190,"|","nativetongue_language^",E197,"|","tradelanguage_language^",E219,"|","florentineweaps^",E432,"|","fastdrawweaps^",E433,"|","specifictargetweaps^",E434,"|","blindfightingweaps^",E435,"|","streetwisesubs^",E558,"|")</f>
         <v>merccoms^Furs,Silver|languages^French:34,Deutsch:58|signlanguages^Romani,Tramps,Thieves|nativetongue_language^Atlantlan|tradelanguage_language^Trade Phoenecian|florentineweaps^axe,onehandedswords|fastdrawweaps^whipflail,axe|specifictargetweaps^axe|blindfightingweaps^poleaxe|streetwisesubs^Merchants,Artists,Gangs|</v>
       </c>
     </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A571" s="9" t="s">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A572" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="B571" s="4" t="str">
-        <f>CONCATENATE(B566,"|",B567,"|",B568,"|",B569)</f>
-        <v>personahide^0|character_name^Smartypants Hottieface|attractiveness^18|beautyugly^-2|ap^2|joss^3|size^1|sizedetail^6'T,2'W|numberappearing^3d6|invuln^Fire|suscept^Silver (Insinuation x2)|senses^|avgarmor^3|mentalcunning^0|mmcapatt^19|mmpowatt^14|mmspdatt^18|mrcapatt^15|mrpowatt^12|mrspdatt^11|pmcapatt^20|pmpowatt^19|pmspdatt^15|pncapatt^19|pnpowatt^18|pnspdatt^17|smcapatt^16|smpowatt^12|smspdatt^11|spcapatt^15|sppowatt^12|spspdatt^13|traithekamental_toggle^0|traithekaphysical_toggle^1|traithekaspiritual_toggle^0|fpdweomer^0|fppriest^0|dweomerschool^|priestethos^|vowpact^|vowpact_mult^1|race^Faerie|personality^Savage|quirks^|residence^Arizona||agriculture_kstoggle^1|agriculture_steep^21|architecture_kstoggle^1|architecture_steep^43||astronomy_kstoggle^1|astronomy_steep^24||cryptography_kstoggle^1|cryptography_steep^24||economicsfinanceinvesting_kstoggle^1|economicsfinanceinvesting_steep^30||foreignlanguage_kstoggle^1|foreignlanguage_steep^34||hypnotism_kstoggle^1|hypnotism_steep^14||journalism_kstoggle^1|journalism_steep^18||lipreadingsignlanguage_kstoggle^1|lipreadingsignlanguage_steep^42||nativetongue_kstoggle^1|nativetongue_steep^37||tradelanguage_kstoggle^1|tradelanguage_steep^24||combathandweapons_kstoggle^1|combathandweapons_steep^24||culturedpalate_kstoggle^1|culturedpalate_steep^52||hekaforging_kstoggle^1|hekaforging_steep^32||music_kstoggle^1|music_steep^23||perceptionphysical_kstoggle^1|perceptionphysical_steep^53||sports_kstoggle^1|sports_steep^34||weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57||philosophy_kstoggle^1|philosophy_steep^20||streetwise_kstoggle^1|streetwise_steep^32||animalhusbandry_has^1|floraculture_has^1|economics_has^1|mercantilism_has^1|axe_has^1|onehandedswords_has^1|beverages_has^1|wineswinemaking_has^1|beersbrewing_has^1|spirits_has^1|perfumes_has^1|gourmetmealpreparation_has^1|enhancedobjectquality_has^1|enchantedmechanisms_has^1|hekareservoirs_has^1|keyboards_has^1|stringedbowed_has^1|noticingp_has^1|hearing_has^1|searching_has^1|tracking_has^1|individualnonviolentsports_has^1|florentine_has^1|fastdraw_has^1|specifictarget_has^1|blindfighting_has^1|merccoms^Furs,Silver|languages^French:34,Deutsch:58|signlanguages^Romani,Tramps,Thieves|nativetongue_language^Atlantlan|tradelanguage_language^Trade Phoenecian|florentineweaps^axe,onehandedswords|fastdrawweaps^whipflail,axe|specifictargetweaps^axe|blindfightingweaps^poleaxe|streetwisesubs^Merchants,Artists,Gangs|</v>
+      <c r="B572" s="4" t="str">
+        <f>CONCATENATE(B567,"|",B568,"|",B569,"|",B570)</f>
+        <v>personahide^0|character_name^Smartypants Hottieface|attractiveness^18|beautyugly^-2|ap^2|joss^3|size^1|sizedetail^6'T,2'W|numberappearing^3d6|invuln^Fire|suscept^Silver (Insinuation x2)|senses^|avgarmor^3|mentalcunning^0|mmcapatt^19|mmpowatt^14|mmspdatt^18|mrcapatt^15|mrpowatt^12|mrspdatt^11|pmcapatt^20|pmpowatt^19|pmspdatt^15|pncapatt^19|pnpowatt^18|pnspdatt^17|smcapatt^16|smpowatt^12|smspdatt^11|spcapatt^15|sppowatt^12|spspdatt^13|traithekamental_toggle^0|traithekaphysical_toggle^1|traithekaspiritual_toggle^0|fpdweomer^0|fppriest^0|dweomerschool^|priestethos^|vowpact^|vowpact_mult^1|race^Faerie|personality^Savage|quirks^|residence^Arizona||agriculture_kstoggle^1|agriculture_steep^21|architecture_kstoggle^1|architecture_steep^43||astronomy_kstoggle^1|astronomy_steep^24||cryptography_kstoggle^1|cryptography_steep^24||economicsfinanceinvesting_kstoggle^1|economicsfinanceinvesting_steep^30||foreignlanguage_kstoggle^1|foreignlanguage_steep^34||hypnotism_kstoggle^1|hypnotism_steep^14||journalism_kstoggle^1|journalism_steep^18||lipreadingsignlanguage_kstoggle^1|lipreadingsignlanguage_steep^42||nativetongue_kstoggle^1|nativetongue_steep^37||tradelanguage_kstoggle^1|tradelanguage_steep^24||combathandweapons_kstoggle^1|combathandweapons_steep^24||culturedpalate_kstoggle^1|culturedpalate_steep^52||hekaforging_kstoggle^1|hekaforging_steep^32||music_kstoggle^1|music_steep^23||perceptionphysical_kstoggle^1|perceptionphysical_steep^53||sports_kstoggle^1|sports_steep^34||subterraneanorientation_kstoggle^1|subterraneanorientation_steep^65||weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57||philosophy_kstoggle^1|philosophy_steep^20||streetwise_kstoggle^1|streetwise_steep^32||animalhusbandry_has^1|floraculture_has^1|economics_has^1|mercantilism_has^1|axe_has^1|onehandedswords_has^1|beverages_has^1|wineswinemaking_has^1|beersbrewing_has^1|spirits_has^1|perfumes_has^1|gourmetmealpreparation_has^1|enhancedobjectquality_has^1|enchantedmechanisms_has^1|hekareservoirs_has^1|keyboards_has^1|stringedbowed_has^1|noticingp_has^1|hearing_has^1|searching_has^1|tracking_has^1|individualnonviolentsports_has^1|florentine_has^1|fastdraw_has^1|specifictarget_has^1|blindfighting_has^1|merccoms^Furs,Silver|languages^French:34,Deutsch:58|signlanguages^Romani,Tramps,Thieves|nativetongue_language^Atlantlan|tradelanguage_language^Trade Phoenecian|florentineweaps^axe,onehandedswords|fastdrawweaps^whipflail,axe|specifictargetweaps^axe|blindfightingweaps^poleaxe|streetwisesubs^Merchants,Artists,Gangs|</v>
       </c>
     </row>
   </sheetData>
@@ -21755,12 +21779,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005AD99616218D054EA63C510D5C3ED3A7" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="03ca639624625ae7533acd65ee9c59f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f8c009f44437b4833e5a9cd5dad2b2e">
     <xsd:element name="properties">
@@ -21874,6 +21892,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{711266C1-876A-4616-816C-90142813F8F8}">
   <ds:schemaRefs>
@@ -21883,21 +21907,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF4E6BC6-A1D2-4A00-9C37-9C5332497FBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D76A81F6-5B2B-41CF-91A3-5CD952364E84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21911,4 +21920,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF4E6BC6-A1D2-4A00-9C37-9C5332497FBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DangerousJourneys-Mythus/accessories/roll20_import_generator2.xlsx
+++ b/DangerousJourneys-Mythus/accessories/roll20_import_generator2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apbrezen\Documents\GitHub\DangerousJourneys-Mythus\accessories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC11E74-4E13-49A7-81CE-090FAF6442BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F3F9E9-8E08-48FA-9F6B-FE77B93BE4B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{9DECB17E-D9C9-49D2-8AD7-DCA09A433D93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="754">
   <si>
     <t>Weapon Name</t>
   </si>
@@ -4026,10 +4026,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F535ADF2-5DDB-4A56-A3F4-DC4F3A8635C8}">
-  <dimension ref="A1:V589"/>
+  <dimension ref="A1:V590"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="A584" sqref="A584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9873,7 +9873,7 @@
       <c r="B394" s="8"/>
       <c r="I394" s="8"/>
       <c r="U394" t="str">
-        <f t="shared" ref="U394:U457" si="11">IF(C394=1,CONCATENATE(A394,"_kstoggle^1|",A394,"_steep^",D394,"|"),"")</f>
+        <f t="shared" ref="U394:U458" si="11">IF(C394=1,CONCATENATE(A394,"_kstoggle^1|",A394,"_steep^",D394,"|"),"")</f>
         <v/>
       </c>
       <c r="V394" t="str">
@@ -9930,7 +9930,7 @@
         <v/>
       </c>
       <c r="V397" t="str">
-        <f t="shared" ref="V397:V460" si="12">IF(G397=1,CONCATENATE(F397,"_has^1",IF(H397=1,CONCATENATE("|",F397,"_spec^1"),),IF(I397=1,CONCATENATE("|",F397,"_proof^1"),)),"")</f>
+        <f t="shared" ref="V397:V461" si="12">IF(G397=1,CONCATENATE(F397,"_has^1",IF(H397=1,CONCATENATE("|",F397,"_spec^1"),),IF(I397=1,CONCATENATE("|",F397,"_proof^1"),)),"")</f>
         <v/>
       </c>
     </row>
@@ -10680,7 +10680,7 @@
     </row>
     <row r="443" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A443" s="8" t="s">
-        <v>333</v>
+        <v>753</v>
       </c>
       <c r="B443" s="8"/>
       <c r="I443" s="8"/>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A444" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B444" s="8"/>
       <c r="I444" s="8"/>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A445" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B445" s="8"/>
       <c r="I445" s="8"/>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A446" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B446" s="8"/>
       <c r="I446" s="8"/>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="447" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A447" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B447" s="8"/>
       <c r="I447" s="8"/>
@@ -10755,19 +10755,13 @@
     </row>
     <row r="448" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B448" s="8"/>
-      <c r="C448">
-        <v>1</v>
-      </c>
-      <c r="D448">
-        <v>57</v>
-      </c>
       <c r="I448" s="8"/>
       <c r="U448" t="str">
         <f t="shared" si="11"/>
-        <v>weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57|</v>
+        <v/>
       </c>
       <c r="V448" t="str">
         <f t="shared" si="12"/>
@@ -10775,26 +10769,24 @@
       </c>
     </row>
     <row r="449" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A449" s="8"/>
-      <c r="B449" t="s">
-        <v>687</v>
-      </c>
-      <c r="E449" t="s">
-        <v>723</v>
-      </c>
-      <c r="F449" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="G449">
+      <c r="A449" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B449" s="8"/>
+      <c r="C449">
         <v>1</v>
       </c>
+      <c r="D449">
+        <v>57</v>
+      </c>
+      <c r="I449" s="8"/>
       <c r="U449" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57|</v>
       </c>
       <c r="V449" t="str">
         <f t="shared" si="12"/>
-        <v>florentine_has^1</v>
+        <v/>
       </c>
     </row>
     <row r="450" spans="1:22" x14ac:dyDescent="0.25">
@@ -10803,10 +10795,10 @@
         <v>687</v>
       </c>
       <c r="E450" t="s">
-        <v>724</v>
-      </c>
-      <c r="F450" t="s">
-        <v>597</v>
+        <v>723</v>
+      </c>
+      <c r="F450" s="8" t="s">
+        <v>596</v>
       </c>
       <c r="G450">
         <v>1</v>
@@ -10817,7 +10809,7 @@
       </c>
       <c r="V450" t="str">
         <f t="shared" si="12"/>
-        <v>fastdraw_has^1</v>
+        <v>florentine_has^1</v>
       </c>
     </row>
     <row r="451" spans="1:22" x14ac:dyDescent="0.25">
@@ -10826,10 +10818,10 @@
         <v>687</v>
       </c>
       <c r="E451" t="s">
-        <v>21</v>
+        <v>724</v>
       </c>
       <c r="F451" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G451">
         <v>1</v>
@@ -10840,7 +10832,7 @@
       </c>
       <c r="V451" t="str">
         <f t="shared" si="12"/>
-        <v>specifictarget_has^1</v>
+        <v>fastdraw_has^1</v>
       </c>
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.25">
@@ -10849,10 +10841,10 @@
         <v>687</v>
       </c>
       <c r="E452" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F452" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G452">
         <v>1</v>
@@ -10863,27 +10855,35 @@
       </c>
       <c r="V452" t="str">
         <f t="shared" si="12"/>
-        <v>blindfighting_has^1</v>
+        <v>specifictarget_has^1</v>
       </c>
     </row>
     <row r="453" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A453" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B453" s="8"/>
-      <c r="I453" s="8"/>
+      <c r="A453" s="8"/>
+      <c r="B453" t="s">
+        <v>687</v>
+      </c>
+      <c r="E453" t="s">
+        <v>29</v>
+      </c>
+      <c r="F453" t="s">
+        <v>599</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
       <c r="U453" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="V453" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>blindfighting_has^1</v>
       </c>
     </row>
     <row r="454" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="s">
-        <v>339</v>
+        <v>127</v>
       </c>
       <c r="B454" s="8"/>
       <c r="I454" s="8"/>
@@ -10897,11 +10897,10 @@
       </c>
     </row>
     <row r="455" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A455" s="8"/>
+      <c r="A455" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B455" s="8"/>
-      <c r="F455" s="8" t="s">
-        <v>600</v>
-      </c>
       <c r="I455" s="8"/>
       <c r="U455" t="str">
         <f t="shared" si="11"/>
@@ -10915,8 +10914,8 @@
     <row r="456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A456" s="8"/>
       <c r="B456" s="8"/>
-      <c r="F456" t="s">
-        <v>601</v>
+      <c r="F456" s="8" t="s">
+        <v>600</v>
       </c>
       <c r="I456" s="8"/>
       <c r="U456" t="str">
@@ -10932,7 +10931,7 @@
       <c r="A457" s="8"/>
       <c r="B457" s="8"/>
       <c r="F457" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I457" s="8"/>
       <c r="U457" t="str">
@@ -10948,11 +10947,11 @@
       <c r="A458" s="8"/>
       <c r="B458" s="8"/>
       <c r="F458" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I458" s="8"/>
       <c r="U458" t="str">
-        <f t="shared" ref="U458:U521" si="13">IF(C458=1,CONCATENATE(A458,"_kstoggle^1|",A458,"_steep^",D458,"|"),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="V458" t="str">
@@ -10964,11 +10963,11 @@
       <c r="A459" s="8"/>
       <c r="B459" s="8"/>
       <c r="F459" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I459" s="8"/>
       <c r="U459" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U459:U522" si="13">IF(C459=1,CONCATENATE(A459,"_kstoggle^1|",A459,"_steep^",D459,"|"),"")</f>
         <v/>
       </c>
       <c r="V459" t="str">
@@ -10980,7 +10979,7 @@
       <c r="A460" s="8"/>
       <c r="B460" s="8"/>
       <c r="F460" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I460" s="8"/>
       <c r="U460" t="str">
@@ -10996,7 +10995,7 @@
       <c r="A461" s="8"/>
       <c r="B461" s="8"/>
       <c r="F461" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I461" s="8"/>
       <c r="U461" t="str">
@@ -11004,7 +11003,7 @@
         <v/>
       </c>
       <c r="V461" t="str">
-        <f t="shared" ref="V461:V524" si="14">IF(G461=1,CONCATENATE(F461,"_has^1",IF(H461=1,CONCATENATE("|",F461,"_spec^1"),),IF(I461=1,CONCATENATE("|",F461,"_proof^1"),)),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -11012,7 +11011,7 @@
       <c r="A462" s="8"/>
       <c r="B462" s="8"/>
       <c r="F462" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I462" s="8"/>
       <c r="U462" t="str">
@@ -11020,7 +11019,7 @@
         <v/>
       </c>
       <c r="V462" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="V462:V525" si="14">IF(G462=1,CONCATENATE(F462,"_has^1",IF(H462=1,CONCATENATE("|",F462,"_spec^1"),),IF(I462=1,CONCATENATE("|",F462,"_proof^1"),)),"")</f>
         <v/>
       </c>
     </row>
@@ -11028,7 +11027,7 @@
       <c r="A463" s="8"/>
       <c r="B463" s="8"/>
       <c r="F463" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I463" s="8"/>
       <c r="U463" t="str">
@@ -11044,7 +11043,7 @@
       <c r="A464" s="8"/>
       <c r="B464" s="8"/>
       <c r="F464" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I464" s="8"/>
       <c r="U464" t="str">
@@ -11060,7 +11059,7 @@
       <c r="A465" s="8"/>
       <c r="B465" s="8"/>
       <c r="F465" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I465" s="8"/>
       <c r="U465" t="str">
@@ -11076,7 +11075,7 @@
       <c r="A466" s="8"/>
       <c r="B466" s="8"/>
       <c r="F466" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I466" s="8"/>
       <c r="U466" t="str">
@@ -11092,7 +11091,7 @@
       <c r="A467" s="8"/>
       <c r="B467" s="8"/>
       <c r="F467" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I467" s="8"/>
       <c r="U467" t="str">
@@ -11108,7 +11107,7 @@
       <c r="A468" s="8"/>
       <c r="B468" s="8"/>
       <c r="F468" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I468" s="8"/>
       <c r="U468" t="str">
@@ -11121,10 +11120,11 @@
       </c>
     </row>
     <row r="469" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A469" s="8" t="s">
-        <v>129</v>
-      </c>
+      <c r="A469" s="8"/>
       <c r="B469" s="8"/>
+      <c r="F469" t="s">
+        <v>613</v>
+      </c>
       <c r="I469" s="8"/>
       <c r="U469" t="str">
         <f t="shared" si="13"/>
@@ -11137,7 +11137,7 @@
     </row>
     <row r="470" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="B470" s="8"/>
       <c r="I470" s="8"/>
@@ -11151,11 +11151,10 @@
       </c>
     </row>
     <row r="471" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A471" s="8"/>
+      <c r="A471" s="8" t="s">
+        <v>340</v>
+      </c>
       <c r="B471" s="8"/>
-      <c r="F471" s="8" t="s">
-        <v>614</v>
-      </c>
       <c r="I471" s="8"/>
       <c r="U471" t="str">
         <f t="shared" si="13"/>
@@ -11169,8 +11168,8 @@
     <row r="472" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A472" s="8"/>
       <c r="B472" s="8"/>
-      <c r="F472" t="s">
-        <v>615</v>
+      <c r="F472" s="8" t="s">
+        <v>614</v>
       </c>
       <c r="I472" s="8"/>
       <c r="U472" t="str">
@@ -11186,7 +11185,7 @@
       <c r="A473" s="8"/>
       <c r="B473" s="8"/>
       <c r="F473" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I473" s="8"/>
       <c r="U473" t="str">
@@ -11202,7 +11201,7 @@
       <c r="A474" s="8"/>
       <c r="B474" s="8"/>
       <c r="F474" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I474" s="8"/>
       <c r="U474" t="str">
@@ -11218,7 +11217,7 @@
       <c r="A475" s="8"/>
       <c r="B475" s="8"/>
       <c r="F475" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I475" s="8"/>
       <c r="U475" t="str">
@@ -11234,7 +11233,7 @@
       <c r="A476" s="8"/>
       <c r="B476" s="8"/>
       <c r="F476" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I476" s="8"/>
       <c r="U476" t="str">
@@ -11250,7 +11249,7 @@
       <c r="A477" s="8"/>
       <c r="B477" s="8"/>
       <c r="F477" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I477" s="8"/>
       <c r="U477" t="str">
@@ -11266,7 +11265,7 @@
       <c r="A478" s="8"/>
       <c r="B478" s="8"/>
       <c r="F478" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I478" s="8"/>
       <c r="U478" t="str">
@@ -11282,7 +11281,7 @@
       <c r="A479" s="8"/>
       <c r="B479" s="8"/>
       <c r="F479" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I479" s="8"/>
       <c r="U479" t="str">
@@ -11298,7 +11297,7 @@
       <c r="A480" s="8"/>
       <c r="B480" s="8"/>
       <c r="F480" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I480" s="8"/>
       <c r="U480" t="str">
@@ -11314,7 +11313,7 @@
       <c r="A481" s="8"/>
       <c r="B481" s="8"/>
       <c r="F481" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I481" s="8"/>
       <c r="U481" t="str">
@@ -11330,7 +11329,7 @@
       <c r="A482" s="8"/>
       <c r="B482" s="8"/>
       <c r="F482" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I482" s="8"/>
       <c r="U482" t="str">
@@ -11343,10 +11342,11 @@
       </c>
     </row>
     <row r="483" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A483" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="A483" s="8"/>
       <c r="B483" s="8"/>
+      <c r="F483" t="s">
+        <v>625</v>
+      </c>
       <c r="I483" s="8"/>
       <c r="U483" t="str">
         <f t="shared" si="13"/>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="484" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="s">
-        <v>130</v>
+        <v>341</v>
       </c>
       <c r="B484" s="8"/>
       <c r="I484" s="8"/>
@@ -11374,7 +11374,7 @@
     </row>
     <row r="485" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A485" s="8" t="s">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="B485" s="8"/>
       <c r="I485" s="8"/>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="486" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="s">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="B486" s="8"/>
       <c r="I486" s="8"/>
@@ -11403,11 +11403,10 @@
       </c>
     </row>
     <row r="487" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A487" s="8"/>
+      <c r="A487" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="B487" s="8"/>
-      <c r="F487" s="8" t="s">
-        <v>626</v>
-      </c>
       <c r="I487" s="8"/>
       <c r="U487" t="str">
         <f t="shared" si="13"/>
@@ -11421,8 +11420,8 @@
     <row r="488" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A488" s="8"/>
       <c r="B488" s="8"/>
-      <c r="F488" t="s">
-        <v>627</v>
+      <c r="F488" s="8" t="s">
+        <v>626</v>
       </c>
       <c r="I488" s="8"/>
       <c r="U488" t="str">
@@ -11438,7 +11437,7 @@
       <c r="A489" s="8"/>
       <c r="B489" s="8"/>
       <c r="F489" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I489" s="8"/>
       <c r="U489" t="str">
@@ -11454,7 +11453,7 @@
       <c r="A490" s="8"/>
       <c r="B490" s="8"/>
       <c r="F490" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I490" s="8"/>
       <c r="U490" t="str">
@@ -11470,7 +11469,7 @@
       <c r="A491" s="8"/>
       <c r="B491" s="8"/>
       <c r="F491" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I491" s="8"/>
       <c r="U491" t="str">
@@ -11483,10 +11482,11 @@
       </c>
     </row>
     <row r="492" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A492" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="A492" s="8"/>
       <c r="B492" s="8"/>
+      <c r="F492" t="s">
+        <v>630</v>
+      </c>
       <c r="I492" s="8"/>
       <c r="U492" t="str">
         <f t="shared" si="13"/>
@@ -11499,7 +11499,7 @@
     </row>
     <row r="493" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A493" s="8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B493" s="8"/>
       <c r="I493" s="8"/>
@@ -11513,11 +11513,10 @@
       </c>
     </row>
     <row r="494" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A494" s="8"/>
+      <c r="A494" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="B494" s="8"/>
-      <c r="F494" s="8" t="s">
-        <v>631</v>
-      </c>
       <c r="I494" s="8"/>
       <c r="U494" t="str">
         <f t="shared" si="13"/>
@@ -11531,8 +11530,8 @@
     <row r="495" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A495" s="8"/>
       <c r="B495" s="8"/>
-      <c r="F495" t="s">
-        <v>632</v>
+      <c r="F495" s="8" t="s">
+        <v>631</v>
       </c>
       <c r="I495" s="8"/>
       <c r="U495" t="str">
@@ -11548,7 +11547,7 @@
       <c r="A496" s="8"/>
       <c r="B496" s="8"/>
       <c r="F496" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I496" s="8"/>
       <c r="U496" t="str">
@@ -11564,7 +11563,7 @@
       <c r="A497" s="8"/>
       <c r="B497" s="8"/>
       <c r="F497" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I497" s="8"/>
       <c r="U497" t="str">
@@ -11580,7 +11579,7 @@
       <c r="A498" s="8"/>
       <c r="B498" s="8"/>
       <c r="F498" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I498" s="8"/>
       <c r="U498" t="str">
@@ -11596,7 +11595,7 @@
       <c r="A499" s="8"/>
       <c r="B499" s="8"/>
       <c r="F499" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I499" s="8"/>
       <c r="U499" t="str">
@@ -11609,10 +11608,11 @@
       </c>
     </row>
     <row r="500" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A500" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="A500" s="8"/>
       <c r="B500" s="8"/>
+      <c r="F500" t="s">
+        <v>636</v>
+      </c>
       <c r="I500" s="8"/>
       <c r="U500" t="str">
         <f t="shared" si="13"/>
@@ -11625,7 +11625,7 @@
     </row>
     <row r="501" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A501" s="8" t="s">
-        <v>343</v>
+        <v>140</v>
       </c>
       <c r="B501" s="8"/>
       <c r="I501" s="8"/>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="502" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B502" s="8"/>
       <c r="I502" s="8"/>
@@ -11654,11 +11654,10 @@
       </c>
     </row>
     <row r="503" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A503" s="8"/>
+      <c r="A503" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="B503" s="8"/>
-      <c r="F503" s="8" t="s">
-        <v>637</v>
-      </c>
       <c r="I503" s="8"/>
       <c r="U503" t="str">
         <f t="shared" si="13"/>
@@ -11672,8 +11671,8 @@
     <row r="504" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A504" s="8"/>
       <c r="B504" s="8"/>
-      <c r="F504" t="s">
-        <v>638</v>
+      <c r="F504" s="8" t="s">
+        <v>637</v>
       </c>
       <c r="I504" s="8"/>
       <c r="U504" t="str">
@@ -11689,7 +11688,7 @@
       <c r="A505" s="8"/>
       <c r="B505" s="8"/>
       <c r="F505" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I505" s="8"/>
       <c r="U505" t="str">
@@ -11705,7 +11704,7 @@
       <c r="A506" s="8"/>
       <c r="B506" s="8"/>
       <c r="F506" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I506" s="8"/>
       <c r="U506" t="str">
@@ -11721,7 +11720,7 @@
       <c r="A507" s="8"/>
       <c r="B507" s="8"/>
       <c r="F507" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I507" s="8"/>
       <c r="U507" t="str">
@@ -11734,10 +11733,11 @@
       </c>
     </row>
     <row r="508" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A508" s="8" t="s">
-        <v>345</v>
-      </c>
+      <c r="A508" s="8"/>
       <c r="B508" s="8"/>
+      <c r="F508" t="s">
+        <v>641</v>
+      </c>
       <c r="I508" s="8"/>
       <c r="U508" t="str">
         <f t="shared" si="13"/>
@@ -11750,7 +11750,7 @@
     </row>
     <row r="509" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A509" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B509" s="8"/>
       <c r="I509" s="8"/>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B510" s="8"/>
       <c r="I510" s="8"/>
@@ -11780,7 +11780,7 @@
     </row>
     <row r="511" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A511" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B511" s="8"/>
       <c r="I511" s="8"/>
@@ -11795,7 +11795,7 @@
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="B512" s="8"/>
       <c r="I512" s="8"/>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="513" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A513" s="8" t="s">
-        <v>349</v>
+        <v>141</v>
       </c>
       <c r="B513" s="8"/>
       <c r="I513" s="8"/>
@@ -11825,7 +11825,7 @@
     </row>
     <row r="514" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A514" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B514" s="8"/>
       <c r="I514" s="8"/>
@@ -11839,11 +11839,10 @@
       </c>
     </row>
     <row r="515" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A515" s="8"/>
+      <c r="A515" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="B515" s="8"/>
-      <c r="F515" s="8" t="s">
-        <v>642</v>
-      </c>
       <c r="I515" s="8"/>
       <c r="U515" t="str">
         <f t="shared" si="13"/>
@@ -11857,8 +11856,8 @@
     <row r="516" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A516" s="8"/>
       <c r="B516" s="8"/>
-      <c r="F516" t="s">
-        <v>224</v>
+      <c r="F516" s="8" t="s">
+        <v>642</v>
       </c>
       <c r="I516" s="8"/>
       <c r="U516" t="str">
@@ -11874,7 +11873,7 @@
       <c r="A517" s="8"/>
       <c r="B517" s="8"/>
       <c r="F517" t="s">
-        <v>643</v>
+        <v>224</v>
       </c>
       <c r="I517" s="8"/>
       <c r="U517" t="str">
@@ -11890,7 +11889,7 @@
       <c r="A518" s="8"/>
       <c r="B518" s="8"/>
       <c r="F518" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I518" s="8"/>
       <c r="U518" t="str">
@@ -11906,7 +11905,7 @@
       <c r="A519" s="8"/>
       <c r="B519" s="8"/>
       <c r="F519" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I519" s="8"/>
       <c r="U519" t="str">
@@ -11922,7 +11921,7 @@
       <c r="A520" s="8"/>
       <c r="B520" s="8"/>
       <c r="F520" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I520" s="8"/>
       <c r="U520" t="str">
@@ -11938,7 +11937,7 @@
       <c r="A521" s="8"/>
       <c r="B521" s="8"/>
       <c r="F521" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I521" s="8"/>
       <c r="U521" t="str">
@@ -11954,11 +11953,11 @@
       <c r="A522" s="8"/>
       <c r="B522" s="8"/>
       <c r="F522" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I522" s="8"/>
       <c r="U522" t="str">
-        <f t="shared" ref="U522:U579" si="15">IF(C522=1,CONCATENATE(A522,"_kstoggle^1|",A522,"_steep^",D522,"|"),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V522" t="str">
@@ -11970,11 +11969,11 @@
       <c r="A523" s="8"/>
       <c r="B523" s="8"/>
       <c r="F523" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I523" s="8"/>
       <c r="U523" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="U523:U580" si="15">IF(C523=1,CONCATENATE(A523,"_kstoggle^1|",A523,"_steep^",D523,"|"),"")</f>
         <v/>
       </c>
       <c r="V523" t="str">
@@ -11986,7 +11985,7 @@
       <c r="A524" s="8"/>
       <c r="B524" s="8"/>
       <c r="F524" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I524" s="8"/>
       <c r="U524" t="str">
@@ -12002,7 +12001,7 @@
       <c r="A525" s="8"/>
       <c r="B525" s="8"/>
       <c r="F525" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I525" s="8"/>
       <c r="U525" t="str">
@@ -12010,28 +12009,29 @@
         <v/>
       </c>
       <c r="V525" t="str">
-        <f t="shared" ref="V525:V579" si="16">IF(G525=1,CONCATENATE(F525,"_has^1",IF(H525=1,CONCATENATE("|",F525,"_spec^1"),),IF(I525=1,CONCATENATE("|",F525,"_proof^1"),)),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="526" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A526" s="8" t="s">
-        <v>351</v>
-      </c>
+      <c r="A526" s="8"/>
       <c r="B526" s="8"/>
+      <c r="F526" t="s">
+        <v>651</v>
+      </c>
       <c r="I526" s="8"/>
       <c r="U526" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="V526" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="V526:V580" si="16">IF(G526=1,CONCATENATE(F526,"_has^1",IF(H526=1,CONCATENATE("|",F526,"_spec^1"),),IF(I526=1,CONCATENATE("|",F526,"_proof^1"),)),"")</f>
         <v/>
       </c>
     </row>
     <row r="527" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A527" s="8" t="s">
-        <v>142</v>
+        <v>351</v>
       </c>
       <c r="B527" s="8"/>
       <c r="I527" s="8"/>
@@ -12046,7 +12046,7 @@
     </row>
     <row r="528" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="B528" s="8"/>
       <c r="I528" s="8"/>
@@ -12060,11 +12060,10 @@
       </c>
     </row>
     <row r="529" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A529" s="8"/>
+      <c r="A529" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B529" s="8"/>
-      <c r="F529" s="8" t="s">
-        <v>652</v>
-      </c>
       <c r="I529" s="8"/>
       <c r="U529" t="str">
         <f t="shared" si="15"/>
@@ -12078,8 +12077,8 @@
     <row r="530" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A530" s="8"/>
       <c r="B530" s="8"/>
-      <c r="F530" t="s">
-        <v>653</v>
+      <c r="F530" s="8" t="s">
+        <v>652</v>
       </c>
       <c r="I530" s="8"/>
       <c r="U530" t="str">
@@ -12095,7 +12094,7 @@
       <c r="A531" s="8"/>
       <c r="B531" s="8"/>
       <c r="F531" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I531" s="8"/>
       <c r="U531" t="str">
@@ -12111,7 +12110,7 @@
       <c r="A532" s="8"/>
       <c r="B532" s="8"/>
       <c r="F532" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I532" s="8"/>
       <c r="U532" t="str">
@@ -12127,7 +12126,7 @@
       <c r="A533" s="8"/>
       <c r="B533" s="8"/>
       <c r="F533" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I533" s="8"/>
       <c r="U533" t="str">
@@ -12140,10 +12139,11 @@
       </c>
     </row>
     <row r="534" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A534" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="A534" s="8"/>
       <c r="B534" s="8"/>
+      <c r="F534" t="s">
+        <v>656</v>
+      </c>
       <c r="I534" s="8"/>
       <c r="U534" t="str">
         <f t="shared" si="15"/>
@@ -12156,7 +12156,7 @@
     </row>
     <row r="535" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A535" s="8" t="s">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="B535" s="8"/>
       <c r="I535" s="8"/>
@@ -12171,7 +12171,7 @@
     </row>
     <row r="536" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A536" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B536" s="8"/>
       <c r="I536" s="8"/>
@@ -12186,7 +12186,7 @@
     </row>
     <row r="537" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A537" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B537" s="8"/>
       <c r="I537" s="8"/>
@@ -12200,11 +12200,10 @@
       </c>
     </row>
     <row r="538" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A538" s="8"/>
+      <c r="A538" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="B538" s="8"/>
-      <c r="F538" s="8" t="s">
-        <v>657</v>
-      </c>
       <c r="I538" s="8"/>
       <c r="U538" t="str">
         <f t="shared" si="15"/>
@@ -12218,8 +12217,8 @@
     <row r="539" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A539" s="8"/>
       <c r="B539" s="8"/>
-      <c r="F539" t="s">
-        <v>658</v>
+      <c r="F539" s="8" t="s">
+        <v>657</v>
       </c>
       <c r="I539" s="8"/>
       <c r="U539" t="str">
@@ -12235,7 +12234,7 @@
       <c r="A540" s="8"/>
       <c r="B540" s="8"/>
       <c r="F540" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I540" s="8"/>
       <c r="U540" t="str">
@@ -12251,7 +12250,7 @@
       <c r="A541" s="8"/>
       <c r="B541" s="8"/>
       <c r="F541" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I541" s="8"/>
       <c r="U541" t="str">
@@ -12267,7 +12266,7 @@
       <c r="A542" s="8"/>
       <c r="B542" s="8"/>
       <c r="F542" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I542" s="8"/>
       <c r="U542" t="str">
@@ -12283,7 +12282,7 @@
       <c r="A543" s="8"/>
       <c r="B543" s="8"/>
       <c r="F543" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I543" s="8"/>
       <c r="U543" t="str">
@@ -12299,7 +12298,7 @@
       <c r="A544" s="8"/>
       <c r="B544" s="8"/>
       <c r="F544" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I544" s="8"/>
       <c r="U544" t="str">
@@ -12315,7 +12314,7 @@
       <c r="A545" s="8"/>
       <c r="B545" s="8"/>
       <c r="F545" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I545" s="8"/>
       <c r="U545" t="str">
@@ -12331,7 +12330,7 @@
       <c r="A546" s="8"/>
       <c r="B546" s="8"/>
       <c r="F546" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I546" s="8"/>
       <c r="U546" t="str">
@@ -12347,7 +12346,7 @@
       <c r="A547" s="8"/>
       <c r="B547" s="8"/>
       <c r="F547" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I547" s="8"/>
       <c r="U547" t="str">
@@ -12363,7 +12362,7 @@
       <c r="A548" s="8"/>
       <c r="B548" s="8"/>
       <c r="F548" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I548" s="8"/>
       <c r="U548" t="str">
@@ -12379,7 +12378,7 @@
       <c r="A549" s="8"/>
       <c r="B549" s="8"/>
       <c r="F549" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I549" s="8"/>
       <c r="U549" t="str">
@@ -12395,7 +12394,7 @@
       <c r="A550" s="8"/>
       <c r="B550" s="8"/>
       <c r="F550" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I550" s="8"/>
       <c r="U550" t="str">
@@ -12411,7 +12410,7 @@
       <c r="A551" s="8"/>
       <c r="B551" s="8"/>
       <c r="F551" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I551" s="8"/>
       <c r="U551" t="str">
@@ -12427,7 +12426,7 @@
       <c r="A552" s="8"/>
       <c r="B552" s="8"/>
       <c r="F552" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I552" s="8"/>
       <c r="U552" t="str">
@@ -12443,7 +12442,7 @@
       <c r="A553" s="8"/>
       <c r="B553" s="8"/>
       <c r="F553" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I553" s="8"/>
       <c r="U553" t="str">
@@ -12459,7 +12458,7 @@
       <c r="A554" s="8"/>
       <c r="B554" s="8"/>
       <c r="F554" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I554" s="8"/>
       <c r="U554" t="str">
@@ -12475,7 +12474,7 @@
       <c r="A555" s="8"/>
       <c r="B555" s="8"/>
       <c r="F555" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I555" s="8"/>
       <c r="U555" t="str">
@@ -12491,7 +12490,7 @@
       <c r="A556" s="8"/>
       <c r="B556" s="8"/>
       <c r="F556" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I556" s="8"/>
       <c r="U556" t="str">
@@ -12504,10 +12503,11 @@
       </c>
     </row>
     <row r="557" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A557" s="8" t="s">
-        <v>356</v>
-      </c>
+      <c r="A557" s="8"/>
       <c r="B557" s="8"/>
+      <c r="F557" t="s">
+        <v>675</v>
+      </c>
       <c r="I557" s="8"/>
       <c r="U557" t="str">
         <f t="shared" si="15"/>
@@ -12519,11 +12519,10 @@
       </c>
     </row>
     <row r="558" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A558" s="8"/>
+      <c r="A558" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="B558" s="8"/>
-      <c r="F558" s="8" t="s">
-        <v>676</v>
-      </c>
       <c r="I558" s="8"/>
       <c r="U558" t="str">
         <f t="shared" si="15"/>
@@ -12537,8 +12536,8 @@
     <row r="559" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A559" s="8"/>
       <c r="B559" s="8"/>
-      <c r="F559" t="s">
-        <v>677</v>
+      <c r="F559" s="8" t="s">
+        <v>676</v>
       </c>
       <c r="I559" s="8"/>
       <c r="U559" t="str">
@@ -12554,7 +12553,7 @@
       <c r="A560" s="8"/>
       <c r="B560" s="8"/>
       <c r="F560" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I560" s="8"/>
       <c r="U560" t="str">
@@ -12570,7 +12569,7 @@
       <c r="A561" s="8"/>
       <c r="B561" s="8"/>
       <c r="F561" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I561" s="8"/>
       <c r="U561" t="str">
@@ -12586,7 +12585,7 @@
       <c r="A562" s="8"/>
       <c r="B562" s="8"/>
       <c r="F562" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I562" s="8"/>
       <c r="U562" t="str">
@@ -12602,7 +12601,7 @@
       <c r="A563" s="8"/>
       <c r="B563" s="8"/>
       <c r="F563" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I563" s="8"/>
       <c r="U563" t="str">
@@ -12615,20 +12614,15 @@
       </c>
     </row>
     <row r="564" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A564" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="A564" s="8"/>
       <c r="B564" s="8"/>
-      <c r="C564">
-        <v>1</v>
-      </c>
-      <c r="D564">
-        <v>20</v>
+      <c r="F564" t="s">
+        <v>681</v>
       </c>
       <c r="I564" s="8"/>
       <c r="U564" t="str">
         <f t="shared" si="15"/>
-        <v>philosophy_kstoggle^1|philosophy_steep^20|</v>
+        <v/>
       </c>
       <c r="V564" t="str">
         <f t="shared" si="16"/>
@@ -12637,13 +12631,19 @@
     </row>
     <row r="565" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A565" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B565" s="8"/>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>20</v>
+      </c>
       <c r="I565" s="8"/>
       <c r="U565" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>philosophy_kstoggle^1|philosophy_steep^20|</v>
       </c>
       <c r="V565" t="str">
         <f t="shared" si="16"/>
@@ -12652,7 +12652,7 @@
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A566" s="8" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="B566" s="8"/>
       <c r="I566" s="8"/>
@@ -12667,7 +12667,7 @@
     </row>
     <row r="567" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A567" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B567" s="8"/>
       <c r="I567" s="8"/>
@@ -12682,7 +12682,7 @@
     </row>
     <row r="568" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B568" s="8"/>
       <c r="I568" s="8"/>
@@ -12697,7 +12697,7 @@
     </row>
     <row r="569" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A569" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B569" s="8"/>
       <c r="I569" s="8"/>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="570" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A570" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B570" s="8"/>
       <c r="I570" s="8"/>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="571" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A571" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B571" s="8"/>
       <c r="I571" s="8"/>
@@ -12742,7 +12742,7 @@
     </row>
     <row r="572" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A572" s="8" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="B572" s="8"/>
       <c r="I572" s="8"/>
@@ -12757,7 +12757,7 @@
     </row>
     <row r="573" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A573" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B573" s="8"/>
       <c r="I573" s="8"/>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="574" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A574" s="8" t="s">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="B574" s="8"/>
       <c r="I574" s="8"/>
@@ -12787,24 +12787,13 @@
     </row>
     <row r="575" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A575" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B575" t="s">
-        <v>682</v>
-      </c>
-      <c r="C575">
-        <v>1</v>
-      </c>
-      <c r="D575">
-        <v>32</v>
-      </c>
-      <c r="E575" t="s">
-        <v>730</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B575" s="8"/>
       <c r="I575" s="8"/>
       <c r="U575" t="str">
         <f t="shared" si="15"/>
-        <v>streetwise_kstoggle^1|streetwise_steep^32|</v>
+        <v/>
       </c>
       <c r="V575" t="str">
         <f t="shared" si="16"/>
@@ -12813,13 +12802,24 @@
     </row>
     <row r="576" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A576" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B576" s="8"/>
+        <v>361</v>
+      </c>
+      <c r="B576" t="s">
+        <v>682</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576">
+        <v>32</v>
+      </c>
+      <c r="E576" t="s">
+        <v>730</v>
+      </c>
       <c r="I576" s="8"/>
       <c r="U576" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>streetwise_kstoggle^1|streetwise_steep^32|</v>
       </c>
       <c r="V576" t="str">
         <f t="shared" si="16"/>
@@ -12828,7 +12828,7 @@
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A577" s="8" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="B577" s="8"/>
       <c r="I577" s="8"/>
@@ -12843,7 +12843,7 @@
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A578" s="8" t="s">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="B578" s="8"/>
       <c r="I578" s="8"/>
@@ -12858,7 +12858,7 @@
     </row>
     <row r="579" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A579" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B579" s="8"/>
       <c r="I579" s="8"/>
@@ -12871,48 +12871,63 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A580" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B580" s="8"/>
+      <c r="I580" s="8"/>
+      <c r="U580" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="V580" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
         <v>692</v>
       </c>
-      <c r="B584" t="str">
+      <c r="B585" t="str">
         <f>CONCATENATE("character_name^",B1,"|","vocation^",B2,"|","vocationtrait^",B3,"|","sec^",B4,"|","attractiveness^",B5,"|","beautyugly^",B6,"|","ap^",B7,"|","joss^",B8,"|","mmcapatt^",B10,"|","mmpowatt^",B11,"|","mmspdatt^",B12,"|","mrcapatt^",B13,"|","mrpowatt^",B14,"|","mrspdatt^",B15,"|","pmcapatt^",B17,"|","pmpowatt^",B18,"|","pmspdatt^",B19,"|","pncapatt^",B20,"|","pnpowatt^",B21,"|","pnspdatt^",B22,"|","smcapatt^",B24,"|","smpowatt^",B25,"|","smspdatt^",B26,"|","spcapatt^",B27,"|","sppowatt^",B28,"|","spspdatt^",B29,"|","traithekamental_toggle^",B31,"|","traithekaphysical_toggle^",B32,"|","traithekaspiritual_toggle^",B33,"|","fpdweomer^",B35,"|","fppriest^",B36,"|","dweomerschool^",B38,"|","priestethos^",B39,"|","vowpact^",B41,"|","vowpact_mult^",B42,"|","age^",B44,"|","sex^",B45,"|","race^",B46,"|","complexion^",B47,"|","handedness^",B48,"|","height^",B49,"|","weight^",B50,"|","build^",B51,"|","eyes^",B52,"|","hair^",B53,"|","physicalother^",B54,"|","personality^",B55,"|","quirks^",B56,"|","quote^",B57,"|","birthdate^",B58,"|","birthplace^",B59,"|","birthrank^",B60,"|","citizenship^",B61,"|","residence^",B62,"|","background^",B63,"|","connections^",B64,"|","networth^",B66,"|","bankaccounts^",B67,"|","cashonhand^",B68,"|","dmi^",B69,"|","possessions1^",B70)</f>
         <v>character_name^Smartypants Hottieface|vocation^Seafarer|vocationtrait^PHYSICAL|sec^5|attractiveness^18|beautyugly^|ap^2|joss^3|mmcapatt^19|mmpowatt^14|mmspdatt^18|mrcapatt^15|mrpowatt^12|mrspdatt^11|pmcapatt^20|pmpowatt^19|pmspdatt^15|pncapatt^19|pnpowatt^18|pnspdatt^17|smcapatt^16|smpowatt^12|smspdatt^11|spcapatt^15|sppowatt^12|spspdatt^13|traithekamental_toggle^0|traithekaphysical_toggle^1|traithekaspiritual_toggle^0|fpdweomer^0|fppriest^0|dweomerschool^|priestethos^|vowpact^|vowpact_mult^1|age^18|sex^Indeed|race^Faerie|complexion^Mocha|handedness^Left|height^5'6"|weight^145 lb.|build^Brickhouse|eyes^Blue|hair^Black|physicalother^Svelte|personality^Savage|quirks^|quote^|birthdate^|birthplace^|birthrank^|citizenship^Detroit|residence^Arizona|background^|connections^|networth^|bankaccounts^|cashonhand^|dmi^|possessions1^</v>
       </c>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>693</v>
-      </c>
-      <c r="B585" t="str">
-        <f>_xlfn.TEXTJOIN("|",TRUE,U73:U579)</f>
-        <v>agriculture_kstoggle^1|agriculture_steep^21|architecture_kstoggle^1|architecture_steep^43||astronomy_kstoggle^1|astronomy_steep^24||cryptography_kstoggle^1|cryptography_steep^24||economicsfinanceinvesting_kstoggle^1|economicsfinanceinvesting_steep^30||foreignlanguage_kstoggle^1|foreignlanguage_steep^34||hypnotism_kstoggle^1|hypnotism_steep^14||journalism_kstoggle^1|journalism_steep^18||lipreadingsignlanguage_kstoggle^1|lipreadingsignlanguage_steep^42||nativetongue_kstoggle^1|nativetongue_steep^37||tradelanguage_kstoggle^1|tradelanguage_steep^24||combathandweapons_kstoggle^1|combathandweapons_steep^24||culturedpalate_kstoggle^1|culturedpalate_steep^52||hekaforging_kstoggle^1|hekaforging_steep^32||music_kstoggle^1|music_steep^23||perceptionphysical_kstoggle^1|perceptionphysical_steep^53||sports_kstoggle^1|sports_steep^34||weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57||philosophy_kstoggle^1|philosophy_steep^20||streetwise_kstoggle^1|streetwise_steep^32|</v>
-      </c>
-    </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B586" t="str">
-        <f>_xlfn.TEXTJOIN("|",TRUE,V73:V579)</f>
-        <v>animalhusbandry_has^1|floraculture_has^1|economics_has^1|mercantilism_has^1|axe_has^1|onehandedswords_has^1|beverages_has^1|wineswinemaking_has^1|beersbrewing_has^1|spirits_has^1|perfumes_has^1|gourmetmealpreparation_has^1|enhancedobjectquality_has^1|enchantedmechanisms_has^1|hekareservoirs_has^1|keyboards_has^1|stringedbowed_has^1|noticingp_has^1|hearing_has^1|searching_has^1|tracking_has^1|individualnonviolentsports_has^1|florentine_has^1|fastdraw_has^1|specifictarget_has^1|blindfighting_has^1</v>
+        <f>_xlfn.TEXTJOIN("|",TRUE,U73:U580)</f>
+        <v>agriculture_kstoggle^1|agriculture_steep^21|architecture_kstoggle^1|architecture_steep^43||astronomy_kstoggle^1|astronomy_steep^24||cryptography_kstoggle^1|cryptography_steep^24||economicsfinanceinvesting_kstoggle^1|economicsfinanceinvesting_steep^30||foreignlanguage_kstoggle^1|foreignlanguage_steep^34||hypnotism_kstoggle^1|hypnotism_steep^14||journalism_kstoggle^1|journalism_steep^18||lipreadingsignlanguage_kstoggle^1|lipreadingsignlanguage_steep^42||nativetongue_kstoggle^1|nativetongue_steep^37||tradelanguage_kstoggle^1|tradelanguage_steep^24||combathandweapons_kstoggle^1|combathandweapons_steep^24||culturedpalate_kstoggle^1|culturedpalate_steep^52||hekaforging_kstoggle^1|hekaforging_steep^32||music_kstoggle^1|music_steep^23||perceptionphysical_kstoggle^1|perceptionphysical_steep^53||sports_kstoggle^1|sports_steep^34||weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57||philosophy_kstoggle^1|philosophy_steep^20||streetwise_kstoggle^1|streetwise_steep^32|</v>
       </c>
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>694</v>
+      </c>
+      <c r="B587" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,V73:V580)</f>
+        <v>animalhusbandry_has^1|floraculture_has^1|economics_has^1|mercantilism_has^1|axe_has^1|onehandedswords_has^1|beverages_has^1|wineswinemaking_has^1|beersbrewing_has^1|spirits_has^1|perfumes_has^1|gourmetmealpreparation_has^1|enhancedobjectquality_has^1|enchantedmechanisms_has^1|hekareservoirs_has^1|keyboards_has^1|stringedbowed_has^1|noticingp_has^1|hearing_has^1|searching_has^1|tracking_has^1|individualnonviolentsports_has^1|florentine_has^1|fastdraw_has^1|specifictarget_has^1|blindfighting_has^1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
         <v>365</v>
       </c>
-      <c r="B587" t="str">
-        <f>CONCATENATE("merccoms^",E144,"|","languages^",E162,"|","signlanguages^",E208,"|","nativetongue_language^",E215,"|","tradelanguage_language^",E237,"|","florentineweaps^",E449,"|","fastdrawweaps^",E450,"|","specifictargetweaps^",E451,"|","blindfightingweaps^",E452,"|","streetwisesubs^",E575,"|")</f>
+      <c r="B588" t="str">
+        <f>CONCATENATE("merccoms^",E144,"|","languages^",E162,"|","signlanguages^",E208,"|","nativetongue_language^",E215,"|","tradelanguage_language^",E237,"|","florentineweaps^",E450,"|","fastdrawweaps^",E451,"|","specifictargetweaps^",E452,"|","blindfightingweaps^",E453,"|","streetwisesubs^",E576,"|")</f>
         <v>merccoms^Furs,Silver|languages^French:34,Deutsch:58|signlanguages^Romani,Tramps,Thieves|nativetongue_language^Atlantlan|tradelanguage_language^Trade Phoenecian|florentineweaps^axe,onehandedswords|fastdrawweaps^whipflail,axe|specifictargetweaps^axe|blindfightingweaps^poleaxe|streetwisesubs^Merchants,Artists,Gangs|</v>
       </c>
     </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A589" s="9" t="s">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A590" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="B589" s="4" t="str">
-        <f>CONCATENATE(B584,"|",B585,"|",B586,"|",B587)</f>
+      <c r="B590" s="4" t="str">
+        <f>CONCATENATE(B585,"|",B586,"|",B587,"|",B588)</f>
         <v>character_name^Smartypants Hottieface|vocation^Seafarer|vocationtrait^PHYSICAL|sec^5|attractiveness^18|beautyugly^|ap^2|joss^3|mmcapatt^19|mmpowatt^14|mmspdatt^18|mrcapatt^15|mrpowatt^12|mrspdatt^11|pmcapatt^20|pmpowatt^19|pmspdatt^15|pncapatt^19|pnpowatt^18|pnspdatt^17|smcapatt^16|smpowatt^12|smspdatt^11|spcapatt^15|sppowatt^12|spspdatt^13|traithekamental_toggle^0|traithekaphysical_toggle^1|traithekaspiritual_toggle^0|fpdweomer^0|fppriest^0|dweomerschool^|priestethos^|vowpact^|vowpact_mult^1|age^18|sex^Indeed|race^Faerie|complexion^Mocha|handedness^Left|height^5'6"|weight^145 lb.|build^Brickhouse|eyes^Blue|hair^Black|physicalother^Svelte|personality^Savage|quirks^|quote^|birthdate^|birthplace^|birthrank^|citizenship^Detroit|residence^Arizona|background^|connections^|networth^|bankaccounts^|cashonhand^|dmi^|possessions1^|agriculture_kstoggle^1|agriculture_steep^21|architecture_kstoggle^1|architecture_steep^43||astronomy_kstoggle^1|astronomy_steep^24||cryptography_kstoggle^1|cryptography_steep^24||economicsfinanceinvesting_kstoggle^1|economicsfinanceinvesting_steep^30||foreignlanguage_kstoggle^1|foreignlanguage_steep^34||hypnotism_kstoggle^1|hypnotism_steep^14||journalism_kstoggle^1|journalism_steep^18||lipreadingsignlanguage_kstoggle^1|lipreadingsignlanguage_steep^42||nativetongue_kstoggle^1|nativetongue_steep^37||tradelanguage_kstoggle^1|tradelanguage_steep^24||combathandweapons_kstoggle^1|combathandweapons_steep^24||culturedpalate_kstoggle^1|culturedpalate_steep^52||hekaforging_kstoggle^1|hekaforging_steep^32||music_kstoggle^1|music_steep^23||perceptionphysical_kstoggle^1|perceptionphysical_steep^53||sports_kstoggle^1|sports_steep^34||weaponsspecialskill_kstoggle^1|weaponsspecialskill_steep^57||philosophy_kstoggle^1|philosophy_steep^20||streetwise_kstoggle^1|streetwise_steep^32||animalhusbandry_has^1|floraculture_has^1|economics_has^1|mercantilism_has^1|axe_has^1|onehandedswords_has^1|beverages_has^1|wineswinemaking_has^1|beersbrewing_has^1|spirits_has^1|perfumes_has^1|gourmetmealpreparation_has^1|enhancedobjectquality_has^1|enchantedmechanisms_has^1|hekareservoirs_has^1|keyboards_has^1|stringedbowed_has^1|noticingp_has^1|hearing_has^1|searching_has^1|tracking_has^1|individualnonviolentsports_has^1|florentine_has^1|fastdraw_has^1|specifictarget_has^1|blindfighting_has^1|merccoms^Furs,Silver|languages^French:34,Deutsch:58|signlanguages^Romani,Tramps,Thieves|nativetongue_language^Atlantlan|tradelanguage_language^Trade Phoenecian|florentineweaps^axe,onehandedswords|fastdrawweaps^whipflail,axe|specifictargetweaps^axe|blindfightingweaps^poleaxe|streetwisesubs^Merchants,Artists,Gangs|</v>
       </c>
     </row>

--- a/DangerousJourneys-Mythus/accessories/roll20_import_generator2.xlsx
+++ b/DangerousJourneys-Mythus/accessories/roll20_import_generator2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apbrezen\Documents\GitHub\DangerousJourneys-Mythus\accessories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F3F9E9-8E08-48FA-9F6B-FE77B93BE4B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DF132B-C92D-4797-AC07-C926961AE64C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{9DECB17E-D9C9-49D2-8AD7-DCA09A433D93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="755">
   <si>
     <t>Weapon Name</t>
   </si>
@@ -2298,6 +2298,9 @@
   </si>
   <si>
     <t>subterraneanorientation</t>
+  </si>
+  <si>
+    <t>eescape</t>
   </si>
 </sst>
 </file>
@@ -12962,8 +12965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1738F689-DC18-48FE-85C0-D9A9FFF22234}">
   <dimension ref="A1:V572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="A573" sqref="A573"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17874,7 +17877,7 @@
     </row>
     <row r="325" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
-        <v>310</v>
+        <v>754</v>
       </c>
       <c r="B325" s="8"/>
       <c r="I325" s="8"/>
@@ -21785,15 +21788,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005AD99616218D054EA63C510D5C3ED3A7" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="03ca639624625ae7533acd65ee9c59f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f8c009f44437b4833e5a9cd5dad2b2e">
     <xsd:element name="properties">
@@ -21907,6 +21901,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -21914,14 +21917,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{711266C1-876A-4616-816C-90142813F8F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D76A81F6-5B2B-41CF-91A3-5CD952364E84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21933,6 +21928,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{711266C1-876A-4616-816C-90142813F8F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
